--- a/Test Documents/Test 1 Results.xlsx
+++ b/Test Documents/Test 1 Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fibee\Desktop\Gamedev\Unity Projects\CMGT-Y2-T3-Advanced-Tools\Test Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDF5234-7A65-4F98-AB6E-8A020BCF2F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCD894F-B5D2-4979-8208-1B126FEF515F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="878" activeTab="3" xr2:uid="{34BB83C4-552E-4BC2-8E42-206248922780}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="9">
   <si>
     <t>[Frame]</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>Cube</t>
+  </si>
+  <si>
+    <t>Sphere Average</t>
+  </si>
+  <si>
+    <t>MeshCube Average</t>
+  </si>
+  <si>
+    <t>Cube Average</t>
   </si>
 </sst>
 </file>
@@ -185,9 +194,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4218,7 +4229,7 @@
   <autoFilter ref="A1:C301" xr:uid="{8089B582-75B6-481B-99E9-BB5CC38EFBD3}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A5E420B6-3505-4D99-AF59-0F0644684D9A}" uniqueName="1" name="[Frame]" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{E547D500-EB3F-44E6-9887-9E24E7B3BF5F}" uniqueName="2" name="-" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{E547D500-EB3F-44E6-9887-9E24E7B3BF5F}" uniqueName="2" name="-" queryTableFieldId="2" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{1BE9F35A-1288-41EF-BBDB-234A59CC42B1}" uniqueName="3" name="[FPS]" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4230,7 +4241,7 @@
   <autoFilter ref="A1:C301" xr:uid="{4FF10E7B-C2D0-4035-AC14-FDBC2916B359}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{3BEBA8F9-0156-4BB3-83FF-1578DC9DFBC7}" uniqueName="1" name="[Frame]" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{46E4C532-349E-49E8-A1C3-279A487A263E}" uniqueName="2" name="-" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{46E4C532-349E-49E8-A1C3-279A487A263E}" uniqueName="2" name="-" queryTableFieldId="2" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{D24C7742-124C-4E70-B799-EF4A483E0081}" uniqueName="3" name="[FPS]" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4594,7 +4605,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
@@ -4605,7 +4616,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
@@ -4616,7 +4627,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4">
@@ -4627,7 +4638,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5">
@@ -4638,7 +4649,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6">
@@ -4649,7 +4660,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7">
@@ -4660,7 +4671,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8">
@@ -4671,7 +4682,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9">
@@ -4682,7 +4693,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10">
@@ -4693,7 +4704,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11">
@@ -4704,7 +4715,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" t="s">
         <v>1</v>
       </c>
       <c r="C12">
@@ -4715,7 +4726,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13">
@@ -4726,7 +4737,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14">
@@ -4737,7 +4748,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="C15">
@@ -4748,7 +4759,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" t="s">
         <v>1</v>
       </c>
       <c r="C16">
@@ -4759,7 +4770,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" t="s">
         <v>1</v>
       </c>
       <c r="C17">
@@ -4770,7 +4781,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" t="s">
         <v>1</v>
       </c>
       <c r="C18">
@@ -4781,7 +4792,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" t="s">
         <v>1</v>
       </c>
       <c r="C19">
@@ -4792,7 +4803,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" t="s">
         <v>1</v>
       </c>
       <c r="C20">
@@ -4803,7 +4814,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" t="s">
         <v>1</v>
       </c>
       <c r="C21">
@@ -4814,7 +4825,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" t="s">
         <v>1</v>
       </c>
       <c r="C22">
@@ -4825,7 +4836,7 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" t="s">
         <v>1</v>
       </c>
       <c r="C23">
@@ -4836,7 +4847,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" t="s">
         <v>1</v>
       </c>
       <c r="C24">
@@ -4847,7 +4858,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" t="s">
         <v>1</v>
       </c>
       <c r="C25">
@@ -4858,7 +4869,7 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" t="s">
         <v>1</v>
       </c>
       <c r="C26">
@@ -4869,7 +4880,7 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" t="s">
         <v>1</v>
       </c>
       <c r="C27">
@@ -4880,7 +4891,7 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" t="s">
         <v>1</v>
       </c>
       <c r="C28">
@@ -4891,7 +4902,7 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" t="s">
         <v>1</v>
       </c>
       <c r="C29">
@@ -4902,7 +4913,7 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" t="s">
         <v>1</v>
       </c>
       <c r="C30">
@@ -4913,7 +4924,7 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" t="s">
         <v>1</v>
       </c>
       <c r="C31">
@@ -4924,7 +4935,7 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" t="s">
         <v>1</v>
       </c>
       <c r="C32">
@@ -4935,7 +4946,7 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" t="s">
         <v>1</v>
       </c>
       <c r="C33">
@@ -4946,7 +4957,7 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" t="s">
         <v>1</v>
       </c>
       <c r="C34">
@@ -4957,7 +4968,7 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" t="s">
         <v>1</v>
       </c>
       <c r="C35">
@@ -4968,7 +4979,7 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" t="s">
         <v>1</v>
       </c>
       <c r="C36">
@@ -4979,7 +4990,7 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" t="s">
         <v>1</v>
       </c>
       <c r="C37">
@@ -4990,7 +5001,7 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" t="s">
         <v>1</v>
       </c>
       <c r="C38">
@@ -5001,7 +5012,7 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" t="s">
         <v>1</v>
       </c>
       <c r="C39">
@@ -5012,7 +5023,7 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" t="s">
         <v>1</v>
       </c>
       <c r="C40">
@@ -5023,7 +5034,7 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" t="s">
         <v>1</v>
       </c>
       <c r="C41">
@@ -5034,7 +5045,7 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" t="s">
         <v>1</v>
       </c>
       <c r="C42">
@@ -5045,7 +5056,7 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" t="s">
         <v>1</v>
       </c>
       <c r="C43">
@@ -5056,7 +5067,7 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" t="s">
         <v>1</v>
       </c>
       <c r="C44">
@@ -5067,7 +5078,7 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" t="s">
         <v>1</v>
       </c>
       <c r="C45">
@@ -5078,7 +5089,7 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" t="s">
         <v>1</v>
       </c>
       <c r="C46">
@@ -5089,7 +5100,7 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" t="s">
         <v>1</v>
       </c>
       <c r="C47">
@@ -5100,7 +5111,7 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" t="s">
         <v>1</v>
       </c>
       <c r="C48">
@@ -5111,7 +5122,7 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" t="s">
         <v>1</v>
       </c>
       <c r="C49">
@@ -5122,7 +5133,7 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" t="s">
         <v>1</v>
       </c>
       <c r="C50">
@@ -5133,7 +5144,7 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" t="s">
         <v>1</v>
       </c>
       <c r="C51">
@@ -5144,7 +5155,7 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" t="s">
         <v>1</v>
       </c>
       <c r="C52">
@@ -5155,7 +5166,7 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" t="s">
         <v>1</v>
       </c>
       <c r="C53">
@@ -5166,7 +5177,7 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" t="s">
         <v>1</v>
       </c>
       <c r="C54">
@@ -5177,7 +5188,7 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" t="s">
         <v>1</v>
       </c>
       <c r="C55">
@@ -5188,7 +5199,7 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" t="s">
         <v>1</v>
       </c>
       <c r="C56">
@@ -5199,7 +5210,7 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" t="s">
         <v>1</v>
       </c>
       <c r="C57">
@@ -5210,7 +5221,7 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" t="s">
         <v>1</v>
       </c>
       <c r="C58">
@@ -5221,7 +5232,7 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" t="s">
         <v>1</v>
       </c>
       <c r="C59">
@@ -5232,7 +5243,7 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" t="s">
         <v>1</v>
       </c>
       <c r="C60">
@@ -5243,7 +5254,7 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" t="s">
         <v>1</v>
       </c>
       <c r="C61">
@@ -5254,7 +5265,7 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" t="s">
         <v>1</v>
       </c>
       <c r="C62">
@@ -5265,7 +5276,7 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" t="s">
         <v>1</v>
       </c>
       <c r="C63">
@@ -5276,7 +5287,7 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" t="s">
         <v>1</v>
       </c>
       <c r="C64">
@@ -5287,7 +5298,7 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" t="s">
         <v>1</v>
       </c>
       <c r="C65">
@@ -5298,7 +5309,7 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" t="s">
         <v>1</v>
       </c>
       <c r="C66">
@@ -5309,7 +5320,7 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" t="s">
         <v>1</v>
       </c>
       <c r="C67">
@@ -5320,7 +5331,7 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" t="s">
         <v>1</v>
       </c>
       <c r="C68">
@@ -5331,7 +5342,7 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" t="s">
         <v>1</v>
       </c>
       <c r="C69">
@@ -5342,7 +5353,7 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" t="s">
         <v>1</v>
       </c>
       <c r="C70">
@@ -5353,7 +5364,7 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" t="s">
         <v>1</v>
       </c>
       <c r="C71">
@@ -5364,7 +5375,7 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" t="s">
         <v>1</v>
       </c>
       <c r="C72">
@@ -5375,7 +5386,7 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" t="s">
         <v>1</v>
       </c>
       <c r="C73">
@@ -5386,7 +5397,7 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" t="s">
         <v>1</v>
       </c>
       <c r="C74">
@@ -5397,7 +5408,7 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" t="s">
         <v>1</v>
       </c>
       <c r="C75">
@@ -5408,7 +5419,7 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" t="s">
         <v>1</v>
       </c>
       <c r="C76">
@@ -5419,7 +5430,7 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" t="s">
         <v>1</v>
       </c>
       <c r="C77">
@@ -5430,7 +5441,7 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" t="s">
         <v>1</v>
       </c>
       <c r="C78">
@@ -5441,7 +5452,7 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" t="s">
         <v>1</v>
       </c>
       <c r="C79">
@@ -5452,7 +5463,7 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" t="s">
         <v>1</v>
       </c>
       <c r="C80">
@@ -5463,7 +5474,7 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" t="s">
         <v>1</v>
       </c>
       <c r="C81">
@@ -5474,7 +5485,7 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" t="s">
         <v>1</v>
       </c>
       <c r="C82">
@@ -5485,7 +5496,7 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" t="s">
         <v>1</v>
       </c>
       <c r="C83">
@@ -5496,7 +5507,7 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" t="s">
         <v>1</v>
       </c>
       <c r="C84">
@@ -5507,7 +5518,7 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" t="s">
         <v>1</v>
       </c>
       <c r="C85">
@@ -5518,7 +5529,7 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" t="s">
         <v>1</v>
       </c>
       <c r="C86">
@@ -5529,7 +5540,7 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" t="s">
         <v>1</v>
       </c>
       <c r="C87">
@@ -5540,7 +5551,7 @@
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" t="s">
         <v>1</v>
       </c>
       <c r="C88">
@@ -5551,7 +5562,7 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" t="s">
         <v>1</v>
       </c>
       <c r="C89">
@@ -5562,7 +5573,7 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" t="s">
         <v>1</v>
       </c>
       <c r="C90">
@@ -5573,7 +5584,7 @@
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" t="s">
         <v>1</v>
       </c>
       <c r="C91">
@@ -5584,7 +5595,7 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" t="s">
         <v>1</v>
       </c>
       <c r="C92">
@@ -5595,7 +5606,7 @@
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" t="s">
         <v>1</v>
       </c>
       <c r="C93">
@@ -5606,7 +5617,7 @@
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" t="s">
         <v>1</v>
       </c>
       <c r="C94">
@@ -5617,7 +5628,7 @@
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" t="s">
         <v>1</v>
       </c>
       <c r="C95">
@@ -5628,7 +5639,7 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" t="s">
         <v>1</v>
       </c>
       <c r="C96">
@@ -5639,7 +5650,7 @@
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" t="s">
         <v>1</v>
       </c>
       <c r="C97">
@@ -5650,7 +5661,7 @@
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" t="s">
         <v>1</v>
       </c>
       <c r="C98">
@@ -5661,7 +5672,7 @@
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" t="s">
         <v>1</v>
       </c>
       <c r="C99">
@@ -5672,7 +5683,7 @@
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" t="s">
         <v>1</v>
       </c>
       <c r="C100">
@@ -5683,7 +5694,7 @@
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" t="s">
         <v>1</v>
       </c>
       <c r="C101">
@@ -5694,7 +5705,7 @@
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" t="s">
         <v>1</v>
       </c>
       <c r="C102">
@@ -5705,7 +5716,7 @@
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" t="s">
         <v>1</v>
       </c>
       <c r="C103">
@@ -5716,7 +5727,7 @@
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" t="s">
         <v>1</v>
       </c>
       <c r="C104">
@@ -5727,7 +5738,7 @@
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" t="s">
         <v>1</v>
       </c>
       <c r="C105">
@@ -5738,7 +5749,7 @@
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" t="s">
         <v>1</v>
       </c>
       <c r="C106">
@@ -5749,7 +5760,7 @@
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" t="s">
         <v>1</v>
       </c>
       <c r="C107">
@@ -5760,7 +5771,7 @@
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" t="s">
         <v>1</v>
       </c>
       <c r="C108">
@@ -5771,7 +5782,7 @@
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" t="s">
         <v>1</v>
       </c>
       <c r="C109">
@@ -5782,7 +5793,7 @@
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" t="s">
         <v>1</v>
       </c>
       <c r="C110">
@@ -5793,7 +5804,7 @@
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" t="s">
         <v>1</v>
       </c>
       <c r="C111">
@@ -5804,7 +5815,7 @@
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" t="s">
         <v>1</v>
       </c>
       <c r="C112">
@@ -5815,7 +5826,7 @@
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" t="s">
         <v>1</v>
       </c>
       <c r="C113">
@@ -5826,7 +5837,7 @@
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" t="s">
         <v>1</v>
       </c>
       <c r="C114">
@@ -5837,7 +5848,7 @@
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" t="s">
         <v>1</v>
       </c>
       <c r="C115">
@@ -5848,7 +5859,7 @@
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" t="s">
         <v>1</v>
       </c>
       <c r="C116">
@@ -5859,7 +5870,7 @@
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" t="s">
         <v>1</v>
       </c>
       <c r="C117">
@@ -5870,7 +5881,7 @@
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" t="s">
         <v>1</v>
       </c>
       <c r="C118">
@@ -5881,7 +5892,7 @@
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" t="s">
         <v>1</v>
       </c>
       <c r="C119">
@@ -5892,7 +5903,7 @@
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" t="s">
         <v>1</v>
       </c>
       <c r="C120">
@@ -5903,7 +5914,7 @@
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" t="s">
         <v>1</v>
       </c>
       <c r="C121">
@@ -5914,7 +5925,7 @@
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" t="s">
         <v>1</v>
       </c>
       <c r="C122">
@@ -5925,7 +5936,7 @@
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" t="s">
         <v>1</v>
       </c>
       <c r="C123">
@@ -5936,7 +5947,7 @@
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" t="s">
         <v>1</v>
       </c>
       <c r="C124">
@@ -5947,7 +5958,7 @@
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" t="s">
         <v>1</v>
       </c>
       <c r="C125">
@@ -5958,7 +5969,7 @@
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" t="s">
         <v>1</v>
       </c>
       <c r="C126">
@@ -5969,7 +5980,7 @@
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" t="s">
         <v>1</v>
       </c>
       <c r="C127">
@@ -5980,7 +5991,7 @@
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" t="s">
         <v>1</v>
       </c>
       <c r="C128">
@@ -5991,7 +6002,7 @@
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" t="s">
         <v>1</v>
       </c>
       <c r="C129">
@@ -6002,7 +6013,7 @@
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" t="s">
         <v>1</v>
       </c>
       <c r="C130">
@@ -6013,7 +6024,7 @@
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" t="s">
         <v>1</v>
       </c>
       <c r="C131">
@@ -6024,7 +6035,7 @@
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" t="s">
         <v>1</v>
       </c>
       <c r="C132">
@@ -6035,7 +6046,7 @@
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" t="s">
         <v>1</v>
       </c>
       <c r="C133">
@@ -6046,7 +6057,7 @@
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" t="s">
         <v>1</v>
       </c>
       <c r="C134">
@@ -6057,7 +6068,7 @@
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" t="s">
         <v>1</v>
       </c>
       <c r="C135">
@@ -6068,7 +6079,7 @@
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" t="s">
         <v>1</v>
       </c>
       <c r="C136">
@@ -6079,7 +6090,7 @@
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" t="s">
         <v>1</v>
       </c>
       <c r="C137">
@@ -6090,7 +6101,7 @@
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" t="s">
         <v>1</v>
       </c>
       <c r="C138">
@@ -6101,7 +6112,7 @@
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" t="s">
         <v>1</v>
       </c>
       <c r="C139">
@@ -6112,7 +6123,7 @@
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" t="s">
         <v>1</v>
       </c>
       <c r="C140">
@@ -6123,7 +6134,7 @@
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" t="s">
         <v>1</v>
       </c>
       <c r="C141">
@@ -6134,7 +6145,7 @@
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" t="s">
         <v>1</v>
       </c>
       <c r="C142">
@@ -6145,7 +6156,7 @@
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" t="s">
         <v>1</v>
       </c>
       <c r="C143">
@@ -6156,7 +6167,7 @@
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B144" t="s">
         <v>1</v>
       </c>
       <c r="C144">
@@ -6167,7 +6178,7 @@
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B145" t="s">
         <v>1</v>
       </c>
       <c r="C145">
@@ -6178,7 +6189,7 @@
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" t="s">
         <v>1</v>
       </c>
       <c r="C146">
@@ -6189,7 +6200,7 @@
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" t="s">
         <v>1</v>
       </c>
       <c r="C147">
@@ -6200,7 +6211,7 @@
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" t="s">
         <v>1</v>
       </c>
       <c r="C148">
@@ -6211,7 +6222,7 @@
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" t="s">
         <v>1</v>
       </c>
       <c r="C149">
@@ -6222,7 +6233,7 @@
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" t="s">
         <v>1</v>
       </c>
       <c r="C150">
@@ -6233,7 +6244,7 @@
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" t="s">
         <v>1</v>
       </c>
       <c r="C151">
@@ -6244,7 +6255,7 @@
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B152" t="s">
         <v>1</v>
       </c>
       <c r="C152">
@@ -6255,7 +6266,7 @@
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" t="s">
         <v>1</v>
       </c>
       <c r="C153">
@@ -6266,7 +6277,7 @@
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B154" t="s">
         <v>1</v>
       </c>
       <c r="C154">
@@ -6277,7 +6288,7 @@
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B155" t="s">
         <v>1</v>
       </c>
       <c r="C155">
@@ -6288,7 +6299,7 @@
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B156" t="s">
         <v>1</v>
       </c>
       <c r="C156">
@@ -6299,7 +6310,7 @@
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B157" t="s">
         <v>1</v>
       </c>
       <c r="C157">
@@ -6310,7 +6321,7 @@
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B158" t="s">
         <v>1</v>
       </c>
       <c r="C158">
@@ -6321,7 +6332,7 @@
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" t="s">
         <v>1</v>
       </c>
       <c r="C159">
@@ -6332,7 +6343,7 @@
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" t="s">
         <v>1</v>
       </c>
       <c r="C160">
@@ -6343,7 +6354,7 @@
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" t="s">
         <v>1</v>
       </c>
       <c r="C161">
@@ -6354,7 +6365,7 @@
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B162" t="s">
         <v>1</v>
       </c>
       <c r="C162">
@@ -6365,7 +6376,7 @@
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" t="s">
         <v>1</v>
       </c>
       <c r="C163">
@@ -6376,7 +6387,7 @@
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B164" t="s">
         <v>1</v>
       </c>
       <c r="C164">
@@ -6387,7 +6398,7 @@
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B165" t="s">
         <v>1</v>
       </c>
       <c r="C165">
@@ -6398,7 +6409,7 @@
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" t="s">
         <v>1</v>
       </c>
       <c r="C166">
@@ -6409,7 +6420,7 @@
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" t="s">
         <v>1</v>
       </c>
       <c r="C167">
@@ -6420,7 +6431,7 @@
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B168" t="s">
         <v>1</v>
       </c>
       <c r="C168">
@@ -6431,7 +6442,7 @@
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="B169" t="s">
         <v>1</v>
       </c>
       <c r="C169">
@@ -6442,7 +6453,7 @@
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" t="s">
         <v>1</v>
       </c>
       <c r="C170">
@@ -6453,7 +6464,7 @@
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B171" t="s">
         <v>1</v>
       </c>
       <c r="C171">
@@ -6464,7 +6475,7 @@
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B172" t="s">
         <v>1</v>
       </c>
       <c r="C172">
@@ -6475,7 +6486,7 @@
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B173" t="s">
         <v>1</v>
       </c>
       <c r="C173">
@@ -6486,7 +6497,7 @@
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B174" t="s">
         <v>1</v>
       </c>
       <c r="C174">
@@ -6497,7 +6508,7 @@
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="B175" t="s">
         <v>1</v>
       </c>
       <c r="C175">
@@ -6508,7 +6519,7 @@
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="B176" t="s">
         <v>1</v>
       </c>
       <c r="C176">
@@ -6519,7 +6530,7 @@
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="B177" t="s">
         <v>1</v>
       </c>
       <c r="C177">
@@ -6530,7 +6541,7 @@
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="B178" t="s">
         <v>1</v>
       </c>
       <c r="C178">
@@ -6541,7 +6552,7 @@
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B179" t="s">
         <v>1</v>
       </c>
       <c r="C179">
@@ -6552,7 +6563,7 @@
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" s="6" t="s">
+      <c r="B180" t="s">
         <v>1</v>
       </c>
       <c r="C180">
@@ -6563,7 +6574,7 @@
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="B181" t="s">
         <v>1</v>
       </c>
       <c r="C181">
@@ -6574,7 +6585,7 @@
       <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" s="6" t="s">
+      <c r="B182" t="s">
         <v>1</v>
       </c>
       <c r="C182">
@@ -6585,7 +6596,7 @@
       <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" s="6" t="s">
+      <c r="B183" t="s">
         <v>1</v>
       </c>
       <c r="C183">
@@ -6596,7 +6607,7 @@
       <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="B184" t="s">
         <v>1</v>
       </c>
       <c r="C184">
@@ -6607,7 +6618,7 @@
       <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="B185" t="s">
         <v>1</v>
       </c>
       <c r="C185">
@@ -6618,7 +6629,7 @@
       <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="B186" t="s">
         <v>1</v>
       </c>
       <c r="C186">
@@ -6629,7 +6640,7 @@
       <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="B187" t="s">
         <v>1</v>
       </c>
       <c r="C187">
@@ -6640,7 +6651,7 @@
       <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="B188" t="s">
         <v>1</v>
       </c>
       <c r="C188">
@@ -6651,7 +6662,7 @@
       <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="B189" t="s">
         <v>1</v>
       </c>
       <c r="C189">
@@ -6662,7 +6673,7 @@
       <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="B190" t="s">
         <v>1</v>
       </c>
       <c r="C190">
@@ -6673,7 +6684,7 @@
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="B191" t="s">
         <v>1</v>
       </c>
       <c r="C191">
@@ -6684,7 +6695,7 @@
       <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="B192" t="s">
         <v>1</v>
       </c>
       <c r="C192">
@@ -6695,7 +6706,7 @@
       <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" s="6" t="s">
+      <c r="B193" t="s">
         <v>1</v>
       </c>
       <c r="C193">
@@ -6706,7 +6717,7 @@
       <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="B194" t="s">
         <v>1</v>
       </c>
       <c r="C194">
@@ -6717,7 +6728,7 @@
       <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" s="6" t="s">
+      <c r="B195" t="s">
         <v>1</v>
       </c>
       <c r="C195">
@@ -6728,7 +6739,7 @@
       <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196" s="6" t="s">
+      <c r="B196" t="s">
         <v>1</v>
       </c>
       <c r="C196">
@@ -6739,7 +6750,7 @@
       <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197" s="6" t="s">
+      <c r="B197" t="s">
         <v>1</v>
       </c>
       <c r="C197">
@@ -6750,7 +6761,7 @@
       <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198" s="6" t="s">
+      <c r="B198" t="s">
         <v>1</v>
       </c>
       <c r="C198">
@@ -6761,7 +6772,7 @@
       <c r="A199">
         <v>198</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="B199" t="s">
         <v>1</v>
       </c>
       <c r="C199">
@@ -6772,7 +6783,7 @@
       <c r="A200">
         <v>199</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="B200" t="s">
         <v>1</v>
       </c>
       <c r="C200">
@@ -6783,7 +6794,7 @@
       <c r="A201">
         <v>200</v>
       </c>
-      <c r="B201" s="6" t="s">
+      <c r="B201" t="s">
         <v>1</v>
       </c>
       <c r="C201">
@@ -6794,7 +6805,7 @@
       <c r="A202">
         <v>201</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="B202" t="s">
         <v>1</v>
       </c>
       <c r="C202">
@@ -6805,7 +6816,7 @@
       <c r="A203">
         <v>202</v>
       </c>
-      <c r="B203" s="6" t="s">
+      <c r="B203" t="s">
         <v>1</v>
       </c>
       <c r="C203">
@@ -6816,7 +6827,7 @@
       <c r="A204">
         <v>203</v>
       </c>
-      <c r="B204" s="6" t="s">
+      <c r="B204" t="s">
         <v>1</v>
       </c>
       <c r="C204">
@@ -6827,7 +6838,7 @@
       <c r="A205">
         <v>204</v>
       </c>
-      <c r="B205" s="6" t="s">
+      <c r="B205" t="s">
         <v>1</v>
       </c>
       <c r="C205">
@@ -6838,7 +6849,7 @@
       <c r="A206">
         <v>205</v>
       </c>
-      <c r="B206" s="6" t="s">
+      <c r="B206" t="s">
         <v>1</v>
       </c>
       <c r="C206">
@@ -6849,7 +6860,7 @@
       <c r="A207">
         <v>206</v>
       </c>
-      <c r="B207" s="6" t="s">
+      <c r="B207" t="s">
         <v>1</v>
       </c>
       <c r="C207">
@@ -6860,7 +6871,7 @@
       <c r="A208">
         <v>207</v>
       </c>
-      <c r="B208" s="6" t="s">
+      <c r="B208" t="s">
         <v>1</v>
       </c>
       <c r="C208">
@@ -6871,7 +6882,7 @@
       <c r="A209">
         <v>208</v>
       </c>
-      <c r="B209" s="6" t="s">
+      <c r="B209" t="s">
         <v>1</v>
       </c>
       <c r="C209">
@@ -6882,7 +6893,7 @@
       <c r="A210">
         <v>209</v>
       </c>
-      <c r="B210" s="6" t="s">
+      <c r="B210" t="s">
         <v>1</v>
       </c>
       <c r="C210">
@@ -6893,7 +6904,7 @@
       <c r="A211">
         <v>210</v>
       </c>
-      <c r="B211" s="6" t="s">
+      <c r="B211" t="s">
         <v>1</v>
       </c>
       <c r="C211">
@@ -6904,7 +6915,7 @@
       <c r="A212">
         <v>211</v>
       </c>
-      <c r="B212" s="6" t="s">
+      <c r="B212" t="s">
         <v>1</v>
       </c>
       <c r="C212">
@@ -6915,7 +6926,7 @@
       <c r="A213">
         <v>212</v>
       </c>
-      <c r="B213" s="6" t="s">
+      <c r="B213" t="s">
         <v>1</v>
       </c>
       <c r="C213">
@@ -6926,7 +6937,7 @@
       <c r="A214">
         <v>213</v>
       </c>
-      <c r="B214" s="6" t="s">
+      <c r="B214" t="s">
         <v>1</v>
       </c>
       <c r="C214">
@@ -6937,7 +6948,7 @@
       <c r="A215">
         <v>214</v>
       </c>
-      <c r="B215" s="6" t="s">
+      <c r="B215" t="s">
         <v>1</v>
       </c>
       <c r="C215">
@@ -6948,7 +6959,7 @@
       <c r="A216">
         <v>215</v>
       </c>
-      <c r="B216" s="6" t="s">
+      <c r="B216" t="s">
         <v>1</v>
       </c>
       <c r="C216">
@@ -6959,7 +6970,7 @@
       <c r="A217">
         <v>216</v>
       </c>
-      <c r="B217" s="6" t="s">
+      <c r="B217" t="s">
         <v>1</v>
       </c>
       <c r="C217">
@@ -6970,7 +6981,7 @@
       <c r="A218">
         <v>217</v>
       </c>
-      <c r="B218" s="6" t="s">
+      <c r="B218" t="s">
         <v>1</v>
       </c>
       <c r="C218">
@@ -6981,7 +6992,7 @@
       <c r="A219">
         <v>218</v>
       </c>
-      <c r="B219" s="6" t="s">
+      <c r="B219" t="s">
         <v>1</v>
       </c>
       <c r="C219">
@@ -6992,7 +7003,7 @@
       <c r="A220">
         <v>219</v>
       </c>
-      <c r="B220" s="6" t="s">
+      <c r="B220" t="s">
         <v>1</v>
       </c>
       <c r="C220">
@@ -7003,7 +7014,7 @@
       <c r="A221">
         <v>220</v>
       </c>
-      <c r="B221" s="6" t="s">
+      <c r="B221" t="s">
         <v>1</v>
       </c>
       <c r="C221">
@@ -7014,7 +7025,7 @@
       <c r="A222">
         <v>221</v>
       </c>
-      <c r="B222" s="6" t="s">
+      <c r="B222" t="s">
         <v>1</v>
       </c>
       <c r="C222">
@@ -7025,7 +7036,7 @@
       <c r="A223">
         <v>222</v>
       </c>
-      <c r="B223" s="6" t="s">
+      <c r="B223" t="s">
         <v>1</v>
       </c>
       <c r="C223">
@@ -7036,7 +7047,7 @@
       <c r="A224">
         <v>223</v>
       </c>
-      <c r="B224" s="6" t="s">
+      <c r="B224" t="s">
         <v>1</v>
       </c>
       <c r="C224">
@@ -7047,7 +7058,7 @@
       <c r="A225">
         <v>224</v>
       </c>
-      <c r="B225" s="6" t="s">
+      <c r="B225" t="s">
         <v>1</v>
       </c>
       <c r="C225">
@@ -7058,7 +7069,7 @@
       <c r="A226">
         <v>225</v>
       </c>
-      <c r="B226" s="6" t="s">
+      <c r="B226" t="s">
         <v>1</v>
       </c>
       <c r="C226">
@@ -7069,7 +7080,7 @@
       <c r="A227">
         <v>226</v>
       </c>
-      <c r="B227" s="6" t="s">
+      <c r="B227" t="s">
         <v>1</v>
       </c>
       <c r="C227">
@@ -7080,7 +7091,7 @@
       <c r="A228">
         <v>227</v>
       </c>
-      <c r="B228" s="6" t="s">
+      <c r="B228" t="s">
         <v>1</v>
       </c>
       <c r="C228">
@@ -7091,7 +7102,7 @@
       <c r="A229">
         <v>228</v>
       </c>
-      <c r="B229" s="6" t="s">
+      <c r="B229" t="s">
         <v>1</v>
       </c>
       <c r="C229">
@@ -7102,7 +7113,7 @@
       <c r="A230">
         <v>229</v>
       </c>
-      <c r="B230" s="6" t="s">
+      <c r="B230" t="s">
         <v>1</v>
       </c>
       <c r="C230">
@@ -7113,7 +7124,7 @@
       <c r="A231">
         <v>230</v>
       </c>
-      <c r="B231" s="6" t="s">
+      <c r="B231" t="s">
         <v>1</v>
       </c>
       <c r="C231">
@@ -7124,7 +7135,7 @@
       <c r="A232">
         <v>231</v>
       </c>
-      <c r="B232" s="6" t="s">
+      <c r="B232" t="s">
         <v>1</v>
       </c>
       <c r="C232">
@@ -7135,7 +7146,7 @@
       <c r="A233">
         <v>232</v>
       </c>
-      <c r="B233" s="6" t="s">
+      <c r="B233" t="s">
         <v>1</v>
       </c>
       <c r="C233">
@@ -7146,7 +7157,7 @@
       <c r="A234">
         <v>233</v>
       </c>
-      <c r="B234" s="6" t="s">
+      <c r="B234" t="s">
         <v>1</v>
       </c>
       <c r="C234">
@@ -7157,7 +7168,7 @@
       <c r="A235">
         <v>234</v>
       </c>
-      <c r="B235" s="6" t="s">
+      <c r="B235" t="s">
         <v>1</v>
       </c>
       <c r="C235">
@@ -7168,7 +7179,7 @@
       <c r="A236">
         <v>235</v>
       </c>
-      <c r="B236" s="6" t="s">
+      <c r="B236" t="s">
         <v>1</v>
       </c>
       <c r="C236">
@@ -7179,7 +7190,7 @@
       <c r="A237">
         <v>236</v>
       </c>
-      <c r="B237" s="6" t="s">
+      <c r="B237" t="s">
         <v>1</v>
       </c>
       <c r="C237">
@@ -7190,7 +7201,7 @@
       <c r="A238">
         <v>237</v>
       </c>
-      <c r="B238" s="6" t="s">
+      <c r="B238" t="s">
         <v>1</v>
       </c>
       <c r="C238">
@@ -7201,7 +7212,7 @@
       <c r="A239">
         <v>238</v>
       </c>
-      <c r="B239" s="6" t="s">
+      <c r="B239" t="s">
         <v>1</v>
       </c>
       <c r="C239">
@@ -7212,7 +7223,7 @@
       <c r="A240">
         <v>239</v>
       </c>
-      <c r="B240" s="6" t="s">
+      <c r="B240" t="s">
         <v>1</v>
       </c>
       <c r="C240">
@@ -7223,7 +7234,7 @@
       <c r="A241">
         <v>240</v>
       </c>
-      <c r="B241" s="6" t="s">
+      <c r="B241" t="s">
         <v>1</v>
       </c>
       <c r="C241">
@@ -7234,7 +7245,7 @@
       <c r="A242">
         <v>241</v>
       </c>
-      <c r="B242" s="6" t="s">
+      <c r="B242" t="s">
         <v>1</v>
       </c>
       <c r="C242">
@@ -7245,7 +7256,7 @@
       <c r="A243">
         <v>242</v>
       </c>
-      <c r="B243" s="6" t="s">
+      <c r="B243" t="s">
         <v>1</v>
       </c>
       <c r="C243">
@@ -7256,7 +7267,7 @@
       <c r="A244">
         <v>243</v>
       </c>
-      <c r="B244" s="6" t="s">
+      <c r="B244" t="s">
         <v>1</v>
       </c>
       <c r="C244">
@@ -7267,7 +7278,7 @@
       <c r="A245">
         <v>244</v>
       </c>
-      <c r="B245" s="6" t="s">
+      <c r="B245" t="s">
         <v>1</v>
       </c>
       <c r="C245">
@@ -7278,7 +7289,7 @@
       <c r="A246">
         <v>245</v>
       </c>
-      <c r="B246" s="6" t="s">
+      <c r="B246" t="s">
         <v>1</v>
       </c>
       <c r="C246">
@@ -7289,7 +7300,7 @@
       <c r="A247">
         <v>246</v>
       </c>
-      <c r="B247" s="6" t="s">
+      <c r="B247" t="s">
         <v>1</v>
       </c>
       <c r="C247">
@@ -7300,7 +7311,7 @@
       <c r="A248">
         <v>247</v>
       </c>
-      <c r="B248" s="6" t="s">
+      <c r="B248" t="s">
         <v>1</v>
       </c>
       <c r="C248">
@@ -7311,7 +7322,7 @@
       <c r="A249">
         <v>248</v>
       </c>
-      <c r="B249" s="6" t="s">
+      <c r="B249" t="s">
         <v>1</v>
       </c>
       <c r="C249">
@@ -7322,7 +7333,7 @@
       <c r="A250">
         <v>249</v>
       </c>
-      <c r="B250" s="6" t="s">
+      <c r="B250" t="s">
         <v>1</v>
       </c>
       <c r="C250">
@@ -7333,7 +7344,7 @@
       <c r="A251">
         <v>250</v>
       </c>
-      <c r="B251" s="6" t="s">
+      <c r="B251" t="s">
         <v>1</v>
       </c>
       <c r="C251">
@@ -7344,7 +7355,7 @@
       <c r="A252">
         <v>251</v>
       </c>
-      <c r="B252" s="6" t="s">
+      <c r="B252" t="s">
         <v>1</v>
       </c>
       <c r="C252">
@@ -7355,7 +7366,7 @@
       <c r="A253">
         <v>252</v>
       </c>
-      <c r="B253" s="6" t="s">
+      <c r="B253" t="s">
         <v>1</v>
       </c>
       <c r="C253">
@@ -7366,7 +7377,7 @@
       <c r="A254">
         <v>253</v>
       </c>
-      <c r="B254" s="6" t="s">
+      <c r="B254" t="s">
         <v>1</v>
       </c>
       <c r="C254">
@@ -7377,7 +7388,7 @@
       <c r="A255">
         <v>254</v>
       </c>
-      <c r="B255" s="6" t="s">
+      <c r="B255" t="s">
         <v>1</v>
       </c>
       <c r="C255">
@@ -7388,7 +7399,7 @@
       <c r="A256">
         <v>255</v>
       </c>
-      <c r="B256" s="6" t="s">
+      <c r="B256" t="s">
         <v>1</v>
       </c>
       <c r="C256">
@@ -7399,7 +7410,7 @@
       <c r="A257">
         <v>256</v>
       </c>
-      <c r="B257" s="6" t="s">
+      <c r="B257" t="s">
         <v>1</v>
       </c>
       <c r="C257">
@@ -7410,7 +7421,7 @@
       <c r="A258">
         <v>257</v>
       </c>
-      <c r="B258" s="6" t="s">
+      <c r="B258" t="s">
         <v>1</v>
       </c>
       <c r="C258">
@@ -7421,7 +7432,7 @@
       <c r="A259">
         <v>258</v>
       </c>
-      <c r="B259" s="6" t="s">
+      <c r="B259" t="s">
         <v>1</v>
       </c>
       <c r="C259">
@@ -7432,7 +7443,7 @@
       <c r="A260">
         <v>259</v>
       </c>
-      <c r="B260" s="6" t="s">
+      <c r="B260" t="s">
         <v>1</v>
       </c>
       <c r="C260">
@@ -7443,7 +7454,7 @@
       <c r="A261">
         <v>260</v>
       </c>
-      <c r="B261" s="6" t="s">
+      <c r="B261" t="s">
         <v>1</v>
       </c>
       <c r="C261">
@@ -7454,7 +7465,7 @@
       <c r="A262">
         <v>261</v>
       </c>
-      <c r="B262" s="6" t="s">
+      <c r="B262" t="s">
         <v>1</v>
       </c>
       <c r="C262">
@@ -7465,7 +7476,7 @@
       <c r="A263">
         <v>262</v>
       </c>
-      <c r="B263" s="6" t="s">
+      <c r="B263" t="s">
         <v>1</v>
       </c>
       <c r="C263">
@@ -7476,7 +7487,7 @@
       <c r="A264">
         <v>263</v>
       </c>
-      <c r="B264" s="6" t="s">
+      <c r="B264" t="s">
         <v>1</v>
       </c>
       <c r="C264">
@@ -7487,7 +7498,7 @@
       <c r="A265">
         <v>264</v>
       </c>
-      <c r="B265" s="6" t="s">
+      <c r="B265" t="s">
         <v>1</v>
       </c>
       <c r="C265">
@@ -7498,7 +7509,7 @@
       <c r="A266">
         <v>265</v>
       </c>
-      <c r="B266" s="6" t="s">
+      <c r="B266" t="s">
         <v>1</v>
       </c>
       <c r="C266">
@@ -7509,7 +7520,7 @@
       <c r="A267">
         <v>266</v>
       </c>
-      <c r="B267" s="6" t="s">
+      <c r="B267" t="s">
         <v>1</v>
       </c>
       <c r="C267">
@@ -7520,7 +7531,7 @@
       <c r="A268">
         <v>267</v>
       </c>
-      <c r="B268" s="6" t="s">
+      <c r="B268" t="s">
         <v>1</v>
       </c>
       <c r="C268">
@@ -7531,7 +7542,7 @@
       <c r="A269">
         <v>268</v>
       </c>
-      <c r="B269" s="6" t="s">
+      <c r="B269" t="s">
         <v>1</v>
       </c>
       <c r="C269">
@@ -7542,7 +7553,7 @@
       <c r="A270">
         <v>269</v>
       </c>
-      <c r="B270" s="6" t="s">
+      <c r="B270" t="s">
         <v>1</v>
       </c>
       <c r="C270">
@@ -7553,7 +7564,7 @@
       <c r="A271">
         <v>270</v>
       </c>
-      <c r="B271" s="6" t="s">
+      <c r="B271" t="s">
         <v>1</v>
       </c>
       <c r="C271">
@@ -7564,7 +7575,7 @@
       <c r="A272">
         <v>271</v>
       </c>
-      <c r="B272" s="6" t="s">
+      <c r="B272" t="s">
         <v>1</v>
       </c>
       <c r="C272">
@@ -7575,7 +7586,7 @@
       <c r="A273">
         <v>272</v>
       </c>
-      <c r="B273" s="6" t="s">
+      <c r="B273" t="s">
         <v>1</v>
       </c>
       <c r="C273">
@@ -7586,7 +7597,7 @@
       <c r="A274">
         <v>273</v>
       </c>
-      <c r="B274" s="6" t="s">
+      <c r="B274" t="s">
         <v>1</v>
       </c>
       <c r="C274">
@@ -7597,7 +7608,7 @@
       <c r="A275">
         <v>274</v>
       </c>
-      <c r="B275" s="6" t="s">
+      <c r="B275" t="s">
         <v>1</v>
       </c>
       <c r="C275">
@@ -7608,7 +7619,7 @@
       <c r="A276">
         <v>275</v>
       </c>
-      <c r="B276" s="6" t="s">
+      <c r="B276" t="s">
         <v>1</v>
       </c>
       <c r="C276">
@@ -7619,7 +7630,7 @@
       <c r="A277">
         <v>276</v>
       </c>
-      <c r="B277" s="6" t="s">
+      <c r="B277" t="s">
         <v>1</v>
       </c>
       <c r="C277">
@@ -7630,7 +7641,7 @@
       <c r="A278">
         <v>277</v>
       </c>
-      <c r="B278" s="6" t="s">
+      <c r="B278" t="s">
         <v>1</v>
       </c>
       <c r="C278">
@@ -7641,7 +7652,7 @@
       <c r="A279">
         <v>278</v>
       </c>
-      <c r="B279" s="6" t="s">
+      <c r="B279" t="s">
         <v>1</v>
       </c>
       <c r="C279">
@@ -7652,7 +7663,7 @@
       <c r="A280">
         <v>279</v>
       </c>
-      <c r="B280" s="6" t="s">
+      <c r="B280" t="s">
         <v>1</v>
       </c>
       <c r="C280">
@@ -7663,7 +7674,7 @@
       <c r="A281">
         <v>280</v>
       </c>
-      <c r="B281" s="6" t="s">
+      <c r="B281" t="s">
         <v>1</v>
       </c>
       <c r="C281">
@@ -7674,7 +7685,7 @@
       <c r="A282">
         <v>281</v>
       </c>
-      <c r="B282" s="6" t="s">
+      <c r="B282" t="s">
         <v>1</v>
       </c>
       <c r="C282">
@@ -7685,7 +7696,7 @@
       <c r="A283">
         <v>282</v>
       </c>
-      <c r="B283" s="6" t="s">
+      <c r="B283" t="s">
         <v>1</v>
       </c>
       <c r="C283">
@@ -7696,7 +7707,7 @@
       <c r="A284">
         <v>283</v>
       </c>
-      <c r="B284" s="6" t="s">
+      <c r="B284" t="s">
         <v>1</v>
       </c>
       <c r="C284">
@@ -7707,7 +7718,7 @@
       <c r="A285">
         <v>284</v>
       </c>
-      <c r="B285" s="6" t="s">
+      <c r="B285" t="s">
         <v>1</v>
       </c>
       <c r="C285">
@@ -7718,7 +7729,7 @@
       <c r="A286">
         <v>285</v>
       </c>
-      <c r="B286" s="6" t="s">
+      <c r="B286" t="s">
         <v>1</v>
       </c>
       <c r="C286">
@@ -7729,7 +7740,7 @@
       <c r="A287">
         <v>286</v>
       </c>
-      <c r="B287" s="6" t="s">
+      <c r="B287" t="s">
         <v>1</v>
       </c>
       <c r="C287">
@@ -7740,7 +7751,7 @@
       <c r="A288">
         <v>287</v>
       </c>
-      <c r="B288" s="6" t="s">
+      <c r="B288" t="s">
         <v>1</v>
       </c>
       <c r="C288">
@@ -7751,7 +7762,7 @@
       <c r="A289">
         <v>288</v>
       </c>
-      <c r="B289" s="6" t="s">
+      <c r="B289" t="s">
         <v>1</v>
       </c>
       <c r="C289">
@@ -7762,7 +7773,7 @@
       <c r="A290">
         <v>289</v>
       </c>
-      <c r="B290" s="6" t="s">
+      <c r="B290" t="s">
         <v>1</v>
       </c>
       <c r="C290">
@@ -7773,7 +7784,7 @@
       <c r="A291">
         <v>290</v>
       </c>
-      <c r="B291" s="6" t="s">
+      <c r="B291" t="s">
         <v>1</v>
       </c>
       <c r="C291">
@@ -7784,7 +7795,7 @@
       <c r="A292">
         <v>291</v>
       </c>
-      <c r="B292" s="6" t="s">
+      <c r="B292" t="s">
         <v>1</v>
       </c>
       <c r="C292">
@@ -7795,7 +7806,7 @@
       <c r="A293">
         <v>292</v>
       </c>
-      <c r="B293" s="6" t="s">
+      <c r="B293" t="s">
         <v>1</v>
       </c>
       <c r="C293">
@@ -7806,7 +7817,7 @@
       <c r="A294">
         <v>293</v>
       </c>
-      <c r="B294" s="6" t="s">
+      <c r="B294" t="s">
         <v>1</v>
       </c>
       <c r="C294">
@@ -7817,7 +7828,7 @@
       <c r="A295">
         <v>294</v>
       </c>
-      <c r="B295" s="6" t="s">
+      <c r="B295" t="s">
         <v>1</v>
       </c>
       <c r="C295">
@@ -7828,7 +7839,7 @@
       <c r="A296">
         <v>295</v>
       </c>
-      <c r="B296" s="6" t="s">
+      <c r="B296" t="s">
         <v>1</v>
       </c>
       <c r="C296">
@@ -7839,7 +7850,7 @@
       <c r="A297">
         <v>296</v>
       </c>
-      <c r="B297" s="6" t="s">
+      <c r="B297" t="s">
         <v>1</v>
       </c>
       <c r="C297">
@@ -7850,7 +7861,7 @@
       <c r="A298">
         <v>297</v>
       </c>
-      <c r="B298" s="6" t="s">
+      <c r="B298" t="s">
         <v>1</v>
       </c>
       <c r="C298">
@@ -7861,7 +7872,7 @@
       <c r="A299">
         <v>298</v>
       </c>
-      <c r="B299" s="6" t="s">
+      <c r="B299" t="s">
         <v>1</v>
       </c>
       <c r="C299">
@@ -7872,7 +7883,7 @@
       <c r="A300">
         <v>299</v>
       </c>
-      <c r="B300" s="6" t="s">
+      <c r="B300" t="s">
         <v>1</v>
       </c>
       <c r="C300">
@@ -7883,7 +7894,7 @@
       <c r="A301">
         <v>300</v>
       </c>
-      <c r="B301" s="6" t="s">
+      <c r="B301" t="s">
         <v>1</v>
       </c>
       <c r="C301">
@@ -7928,7 +7939,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
@@ -7939,7 +7950,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
@@ -7950,7 +7961,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4">
@@ -7961,7 +7972,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5">
@@ -7972,7 +7983,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6">
@@ -7983,7 +7994,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7">
@@ -7994,7 +8005,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8">
@@ -8005,7 +8016,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9">
@@ -8016,7 +8027,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10">
@@ -8027,7 +8038,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11">
@@ -8038,7 +8049,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" t="s">
         <v>1</v>
       </c>
       <c r="C12">
@@ -8049,7 +8060,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13">
@@ -8060,7 +8071,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14">
@@ -8071,7 +8082,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="C15">
@@ -8082,7 +8093,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" t="s">
         <v>1</v>
       </c>
       <c r="C16">
@@ -8093,7 +8104,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" t="s">
         <v>1</v>
       </c>
       <c r="C17">
@@ -8104,7 +8115,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" t="s">
         <v>1</v>
       </c>
       <c r="C18">
@@ -8115,7 +8126,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" t="s">
         <v>1</v>
       </c>
       <c r="C19">
@@ -8126,7 +8137,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" t="s">
         <v>1</v>
       </c>
       <c r="C20">
@@ -8137,7 +8148,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" t="s">
         <v>1</v>
       </c>
       <c r="C21">
@@ -8148,7 +8159,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" t="s">
         <v>1</v>
       </c>
       <c r="C22">
@@ -8159,7 +8170,7 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" t="s">
         <v>1</v>
       </c>
       <c r="C23">
@@ -8170,7 +8181,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" t="s">
         <v>1</v>
       </c>
       <c r="C24">
@@ -8181,7 +8192,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" t="s">
         <v>1</v>
       </c>
       <c r="C25">
@@ -8192,7 +8203,7 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" t="s">
         <v>1</v>
       </c>
       <c r="C26">
@@ -8203,7 +8214,7 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" t="s">
         <v>1</v>
       </c>
       <c r="C27">
@@ -8214,7 +8225,7 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" t="s">
         <v>1</v>
       </c>
       <c r="C28">
@@ -8225,7 +8236,7 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" t="s">
         <v>1</v>
       </c>
       <c r="C29">
@@ -8236,7 +8247,7 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" t="s">
         <v>1</v>
       </c>
       <c r="C30">
@@ -8247,7 +8258,7 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" t="s">
         <v>1</v>
       </c>
       <c r="C31">
@@ -8258,7 +8269,7 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" t="s">
         <v>1</v>
       </c>
       <c r="C32">
@@ -8269,7 +8280,7 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" t="s">
         <v>1</v>
       </c>
       <c r="C33">
@@ -8280,7 +8291,7 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" t="s">
         <v>1</v>
       </c>
       <c r="C34">
@@ -8291,7 +8302,7 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" t="s">
         <v>1</v>
       </c>
       <c r="C35">
@@ -8302,7 +8313,7 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" t="s">
         <v>1</v>
       </c>
       <c r="C36">
@@ -8313,7 +8324,7 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" t="s">
         <v>1</v>
       </c>
       <c r="C37">
@@ -8324,7 +8335,7 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" t="s">
         <v>1</v>
       </c>
       <c r="C38">
@@ -8335,7 +8346,7 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" t="s">
         <v>1</v>
       </c>
       <c r="C39">
@@ -8346,7 +8357,7 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" t="s">
         <v>1</v>
       </c>
       <c r="C40">
@@ -8357,7 +8368,7 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" t="s">
         <v>1</v>
       </c>
       <c r="C41">
@@ -8368,7 +8379,7 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" t="s">
         <v>1</v>
       </c>
       <c r="C42">
@@ -8379,7 +8390,7 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" t="s">
         <v>1</v>
       </c>
       <c r="C43">
@@ -8390,7 +8401,7 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" t="s">
         <v>1</v>
       </c>
       <c r="C44">
@@ -8401,7 +8412,7 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" t="s">
         <v>1</v>
       </c>
       <c r="C45">
@@ -8412,7 +8423,7 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" t="s">
         <v>1</v>
       </c>
       <c r="C46">
@@ -8423,7 +8434,7 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" t="s">
         <v>1</v>
       </c>
       <c r="C47">
@@ -8434,7 +8445,7 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" t="s">
         <v>1</v>
       </c>
       <c r="C48">
@@ -8445,7 +8456,7 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" t="s">
         <v>1</v>
       </c>
       <c r="C49">
@@ -8456,7 +8467,7 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" t="s">
         <v>1</v>
       </c>
       <c r="C50">
@@ -8467,7 +8478,7 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" t="s">
         <v>1</v>
       </c>
       <c r="C51">
@@ -8478,7 +8489,7 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" t="s">
         <v>1</v>
       </c>
       <c r="C52">
@@ -8489,7 +8500,7 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" t="s">
         <v>1</v>
       </c>
       <c r="C53">
@@ -8500,7 +8511,7 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" t="s">
         <v>1</v>
       </c>
       <c r="C54">
@@ -8511,7 +8522,7 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" t="s">
         <v>1</v>
       </c>
       <c r="C55">
@@ -8522,7 +8533,7 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" t="s">
         <v>1</v>
       </c>
       <c r="C56">
@@ -8533,7 +8544,7 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" t="s">
         <v>1</v>
       </c>
       <c r="C57">
@@ -8544,7 +8555,7 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" t="s">
         <v>1</v>
       </c>
       <c r="C58">
@@ -8555,7 +8566,7 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" t="s">
         <v>1</v>
       </c>
       <c r="C59">
@@ -8566,7 +8577,7 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" t="s">
         <v>1</v>
       </c>
       <c r="C60">
@@ -8577,7 +8588,7 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" t="s">
         <v>1</v>
       </c>
       <c r="C61">
@@ -8588,7 +8599,7 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" t="s">
         <v>1</v>
       </c>
       <c r="C62">
@@ -8599,7 +8610,7 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" t="s">
         <v>1</v>
       </c>
       <c r="C63">
@@ -8610,7 +8621,7 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" t="s">
         <v>1</v>
       </c>
       <c r="C64">
@@ -8621,7 +8632,7 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" t="s">
         <v>1</v>
       </c>
       <c r="C65">
@@ -8632,7 +8643,7 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" t="s">
         <v>1</v>
       </c>
       <c r="C66">
@@ -8643,7 +8654,7 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" t="s">
         <v>1</v>
       </c>
       <c r="C67">
@@ -8654,7 +8665,7 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" t="s">
         <v>1</v>
       </c>
       <c r="C68">
@@ -8665,7 +8676,7 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" t="s">
         <v>1</v>
       </c>
       <c r="C69">
@@ -8676,7 +8687,7 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" t="s">
         <v>1</v>
       </c>
       <c r="C70">
@@ -8687,7 +8698,7 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" t="s">
         <v>1</v>
       </c>
       <c r="C71">
@@ -8698,7 +8709,7 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" t="s">
         <v>1</v>
       </c>
       <c r="C72">
@@ -8709,7 +8720,7 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" t="s">
         <v>1</v>
       </c>
       <c r="C73">
@@ -8720,7 +8731,7 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" t="s">
         <v>1</v>
       </c>
       <c r="C74">
@@ -8731,7 +8742,7 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" t="s">
         <v>1</v>
       </c>
       <c r="C75">
@@ -8742,7 +8753,7 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" t="s">
         <v>1</v>
       </c>
       <c r="C76">
@@ -8753,7 +8764,7 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" t="s">
         <v>1</v>
       </c>
       <c r="C77">
@@ -8764,7 +8775,7 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" t="s">
         <v>1</v>
       </c>
       <c r="C78">
@@ -8775,7 +8786,7 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" t="s">
         <v>1</v>
       </c>
       <c r="C79">
@@ -8786,7 +8797,7 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" t="s">
         <v>1</v>
       </c>
       <c r="C80">
@@ -8797,7 +8808,7 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" t="s">
         <v>1</v>
       </c>
       <c r="C81">
@@ -8808,7 +8819,7 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" t="s">
         <v>1</v>
       </c>
       <c r="C82">
@@ -8819,7 +8830,7 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" t="s">
         <v>1</v>
       </c>
       <c r="C83">
@@ -8830,7 +8841,7 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" t="s">
         <v>1</v>
       </c>
       <c r="C84">
@@ -8841,7 +8852,7 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" t="s">
         <v>1</v>
       </c>
       <c r="C85">
@@ -8852,7 +8863,7 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" t="s">
         <v>1</v>
       </c>
       <c r="C86">
@@ -8863,7 +8874,7 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" t="s">
         <v>1</v>
       </c>
       <c r="C87">
@@ -8874,7 +8885,7 @@
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" t="s">
         <v>1</v>
       </c>
       <c r="C88">
@@ -8885,7 +8896,7 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" t="s">
         <v>1</v>
       </c>
       <c r="C89">
@@ -8896,7 +8907,7 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" t="s">
         <v>1</v>
       </c>
       <c r="C90">
@@ -8907,7 +8918,7 @@
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" t="s">
         <v>1</v>
       </c>
       <c r="C91">
@@ -8918,7 +8929,7 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" t="s">
         <v>1</v>
       </c>
       <c r="C92">
@@ -8929,7 +8940,7 @@
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" t="s">
         <v>1</v>
       </c>
       <c r="C93">
@@ -8940,7 +8951,7 @@
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" t="s">
         <v>1</v>
       </c>
       <c r="C94">
@@ -8951,7 +8962,7 @@
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" t="s">
         <v>1</v>
       </c>
       <c r="C95">
@@ -8962,7 +8973,7 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" t="s">
         <v>1</v>
       </c>
       <c r="C96">
@@ -8973,7 +8984,7 @@
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" t="s">
         <v>1</v>
       </c>
       <c r="C97">
@@ -8984,7 +8995,7 @@
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" t="s">
         <v>1</v>
       </c>
       <c r="C98">
@@ -8995,7 +9006,7 @@
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" t="s">
         <v>1</v>
       </c>
       <c r="C99">
@@ -9006,7 +9017,7 @@
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" t="s">
         <v>1</v>
       </c>
       <c r="C100">
@@ -9017,7 +9028,7 @@
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" t="s">
         <v>1</v>
       </c>
       <c r="C101">
@@ -9028,7 +9039,7 @@
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" t="s">
         <v>1</v>
       </c>
       <c r="C102">
@@ -9039,7 +9050,7 @@
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" t="s">
         <v>1</v>
       </c>
       <c r="C103">
@@ -9050,7 +9061,7 @@
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" t="s">
         <v>1</v>
       </c>
       <c r="C104">
@@ -9061,7 +9072,7 @@
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" t="s">
         <v>1</v>
       </c>
       <c r="C105">
@@ -9072,7 +9083,7 @@
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" t="s">
         <v>1</v>
       </c>
       <c r="C106">
@@ -9083,7 +9094,7 @@
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" t="s">
         <v>1</v>
       </c>
       <c r="C107">
@@ -9094,7 +9105,7 @@
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" t="s">
         <v>1</v>
       </c>
       <c r="C108">
@@ -9105,7 +9116,7 @@
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" t="s">
         <v>1</v>
       </c>
       <c r="C109">
@@ -9116,7 +9127,7 @@
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" t="s">
         <v>1</v>
       </c>
       <c r="C110">
@@ -9127,7 +9138,7 @@
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" t="s">
         <v>1</v>
       </c>
       <c r="C111">
@@ -9138,7 +9149,7 @@
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" t="s">
         <v>1</v>
       </c>
       <c r="C112">
@@ -9149,7 +9160,7 @@
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" t="s">
         <v>1</v>
       </c>
       <c r="C113">
@@ -9160,7 +9171,7 @@
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" t="s">
         <v>1</v>
       </c>
       <c r="C114">
@@ -9171,7 +9182,7 @@
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" t="s">
         <v>1</v>
       </c>
       <c r="C115">
@@ -9182,7 +9193,7 @@
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" t="s">
         <v>1</v>
       </c>
       <c r="C116">
@@ -9193,7 +9204,7 @@
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" t="s">
         <v>1</v>
       </c>
       <c r="C117">
@@ -9204,7 +9215,7 @@
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" t="s">
         <v>1</v>
       </c>
       <c r="C118">
@@ -9215,7 +9226,7 @@
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" t="s">
         <v>1</v>
       </c>
       <c r="C119">
@@ -9226,7 +9237,7 @@
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" t="s">
         <v>1</v>
       </c>
       <c r="C120">
@@ -9237,7 +9248,7 @@
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" t="s">
         <v>1</v>
       </c>
       <c r="C121">
@@ -9248,7 +9259,7 @@
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" t="s">
         <v>1</v>
       </c>
       <c r="C122">
@@ -9259,7 +9270,7 @@
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" t="s">
         <v>1</v>
       </c>
       <c r="C123">
@@ -9270,7 +9281,7 @@
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" t="s">
         <v>1</v>
       </c>
       <c r="C124">
@@ -9281,7 +9292,7 @@
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" t="s">
         <v>1</v>
       </c>
       <c r="C125">
@@ -9292,7 +9303,7 @@
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" t="s">
         <v>1</v>
       </c>
       <c r="C126">
@@ -9303,7 +9314,7 @@
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" t="s">
         <v>1</v>
       </c>
       <c r="C127">
@@ -9314,7 +9325,7 @@
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" t="s">
         <v>1</v>
       </c>
       <c r="C128">
@@ -9325,7 +9336,7 @@
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" t="s">
         <v>1</v>
       </c>
       <c r="C129">
@@ -9336,7 +9347,7 @@
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" t="s">
         <v>1</v>
       </c>
       <c r="C130">
@@ -9347,7 +9358,7 @@
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" t="s">
         <v>1</v>
       </c>
       <c r="C131">
@@ -9358,7 +9369,7 @@
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" t="s">
         <v>1</v>
       </c>
       <c r="C132">
@@ -9369,7 +9380,7 @@
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" t="s">
         <v>1</v>
       </c>
       <c r="C133">
@@ -9380,7 +9391,7 @@
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" t="s">
         <v>1</v>
       </c>
       <c r="C134">
@@ -9391,7 +9402,7 @@
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" t="s">
         <v>1</v>
       </c>
       <c r="C135">
@@ -9402,7 +9413,7 @@
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" t="s">
         <v>1</v>
       </c>
       <c r="C136">
@@ -9413,7 +9424,7 @@
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" t="s">
         <v>1</v>
       </c>
       <c r="C137">
@@ -9424,7 +9435,7 @@
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" t="s">
         <v>1</v>
       </c>
       <c r="C138">
@@ -9435,7 +9446,7 @@
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" t="s">
         <v>1</v>
       </c>
       <c r="C139">
@@ -9446,7 +9457,7 @@
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" t="s">
         <v>1</v>
       </c>
       <c r="C140">
@@ -9457,7 +9468,7 @@
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" t="s">
         <v>1</v>
       </c>
       <c r="C141">
@@ -9468,7 +9479,7 @@
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" t="s">
         <v>1</v>
       </c>
       <c r="C142">
@@ -9479,7 +9490,7 @@
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" t="s">
         <v>1</v>
       </c>
       <c r="C143">
@@ -9490,7 +9501,7 @@
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B144" t="s">
         <v>1</v>
       </c>
       <c r="C144">
@@ -9501,7 +9512,7 @@
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B145" t="s">
         <v>1</v>
       </c>
       <c r="C145">
@@ -9512,7 +9523,7 @@
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" t="s">
         <v>1</v>
       </c>
       <c r="C146">
@@ -9523,7 +9534,7 @@
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" t="s">
         <v>1</v>
       </c>
       <c r="C147">
@@ -9534,7 +9545,7 @@
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" t="s">
         <v>1</v>
       </c>
       <c r="C148">
@@ -9545,7 +9556,7 @@
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" t="s">
         <v>1</v>
       </c>
       <c r="C149">
@@ -9556,7 +9567,7 @@
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" t="s">
         <v>1</v>
       </c>
       <c r="C150">
@@ -9567,7 +9578,7 @@
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" t="s">
         <v>1</v>
       </c>
       <c r="C151">
@@ -9578,7 +9589,7 @@
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B152" t="s">
         <v>1</v>
       </c>
       <c r="C152">
@@ -9589,7 +9600,7 @@
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" t="s">
         <v>1</v>
       </c>
       <c r="C153">
@@ -9600,7 +9611,7 @@
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B154" t="s">
         <v>1</v>
       </c>
       <c r="C154">
@@ -9611,7 +9622,7 @@
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B155" t="s">
         <v>1</v>
       </c>
       <c r="C155">
@@ -9622,7 +9633,7 @@
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B156" t="s">
         <v>1</v>
       </c>
       <c r="C156">
@@ -9633,7 +9644,7 @@
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B157" t="s">
         <v>1</v>
       </c>
       <c r="C157">
@@ -9644,7 +9655,7 @@
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B158" t="s">
         <v>1</v>
       </c>
       <c r="C158">
@@ -9655,7 +9666,7 @@
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" t="s">
         <v>1</v>
       </c>
       <c r="C159">
@@ -9666,7 +9677,7 @@
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" t="s">
         <v>1</v>
       </c>
       <c r="C160">
@@ -9677,7 +9688,7 @@
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" t="s">
         <v>1</v>
       </c>
       <c r="C161">
@@ -9688,7 +9699,7 @@
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B162" t="s">
         <v>1</v>
       </c>
       <c r="C162">
@@ -9699,7 +9710,7 @@
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" t="s">
         <v>1</v>
       </c>
       <c r="C163">
@@ -9710,7 +9721,7 @@
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B164" t="s">
         <v>1</v>
       </c>
       <c r="C164">
@@ -9721,7 +9732,7 @@
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B165" t="s">
         <v>1</v>
       </c>
       <c r="C165">
@@ -9732,7 +9743,7 @@
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" t="s">
         <v>1</v>
       </c>
       <c r="C166">
@@ -9743,7 +9754,7 @@
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" t="s">
         <v>1</v>
       </c>
       <c r="C167">
@@ -9754,7 +9765,7 @@
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B168" t="s">
         <v>1</v>
       </c>
       <c r="C168">
@@ -9765,7 +9776,7 @@
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="B169" t="s">
         <v>1</v>
       </c>
       <c r="C169">
@@ -9776,7 +9787,7 @@
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" t="s">
         <v>1</v>
       </c>
       <c r="C170">
@@ -9787,7 +9798,7 @@
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B171" t="s">
         <v>1</v>
       </c>
       <c r="C171">
@@ -9798,7 +9809,7 @@
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B172" t="s">
         <v>1</v>
       </c>
       <c r="C172">
@@ -9809,7 +9820,7 @@
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B173" t="s">
         <v>1</v>
       </c>
       <c r="C173">
@@ -9820,7 +9831,7 @@
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B174" t="s">
         <v>1</v>
       </c>
       <c r="C174">
@@ -9831,7 +9842,7 @@
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="B175" t="s">
         <v>1</v>
       </c>
       <c r="C175">
@@ -9842,7 +9853,7 @@
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="B176" t="s">
         <v>1</v>
       </c>
       <c r="C176">
@@ -9853,7 +9864,7 @@
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="B177" t="s">
         <v>1</v>
       </c>
       <c r="C177">
@@ -9864,7 +9875,7 @@
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="B178" t="s">
         <v>1</v>
       </c>
       <c r="C178">
@@ -9875,7 +9886,7 @@
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B179" t="s">
         <v>1</v>
       </c>
       <c r="C179">
@@ -9886,7 +9897,7 @@
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" s="6" t="s">
+      <c r="B180" t="s">
         <v>1</v>
       </c>
       <c r="C180">
@@ -9897,7 +9908,7 @@
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="B181" t="s">
         <v>1</v>
       </c>
       <c r="C181">
@@ -9908,7 +9919,7 @@
       <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" s="6" t="s">
+      <c r="B182" t="s">
         <v>1</v>
       </c>
       <c r="C182">
@@ -9919,7 +9930,7 @@
       <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" s="6" t="s">
+      <c r="B183" t="s">
         <v>1</v>
       </c>
       <c r="C183">
@@ -9930,7 +9941,7 @@
       <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="B184" t="s">
         <v>1</v>
       </c>
       <c r="C184">
@@ -9941,7 +9952,7 @@
       <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="B185" t="s">
         <v>1</v>
       </c>
       <c r="C185">
@@ -9952,7 +9963,7 @@
       <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="B186" t="s">
         <v>1</v>
       </c>
       <c r="C186">
@@ -9963,7 +9974,7 @@
       <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="B187" t="s">
         <v>1</v>
       </c>
       <c r="C187">
@@ -9974,7 +9985,7 @@
       <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="B188" t="s">
         <v>1</v>
       </c>
       <c r="C188">
@@ -9985,7 +9996,7 @@
       <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="B189" t="s">
         <v>1</v>
       </c>
       <c r="C189">
@@ -9996,7 +10007,7 @@
       <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="B190" t="s">
         <v>1</v>
       </c>
       <c r="C190">
@@ -10007,7 +10018,7 @@
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="B191" t="s">
         <v>1</v>
       </c>
       <c r="C191">
@@ -10018,7 +10029,7 @@
       <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="B192" t="s">
         <v>1</v>
       </c>
       <c r="C192">
@@ -10029,7 +10040,7 @@
       <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" s="6" t="s">
+      <c r="B193" t="s">
         <v>1</v>
       </c>
       <c r="C193">
@@ -10040,7 +10051,7 @@
       <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="B194" t="s">
         <v>1</v>
       </c>
       <c r="C194">
@@ -10051,7 +10062,7 @@
       <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" s="6" t="s">
+      <c r="B195" t="s">
         <v>1</v>
       </c>
       <c r="C195">
@@ -10062,7 +10073,7 @@
       <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196" s="6" t="s">
+      <c r="B196" t="s">
         <v>1</v>
       </c>
       <c r="C196">
@@ -10073,7 +10084,7 @@
       <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197" s="6" t="s">
+      <c r="B197" t="s">
         <v>1</v>
       </c>
       <c r="C197">
@@ -10084,7 +10095,7 @@
       <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198" s="6" t="s">
+      <c r="B198" t="s">
         <v>1</v>
       </c>
       <c r="C198">
@@ -10095,7 +10106,7 @@
       <c r="A199">
         <v>198</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="B199" t="s">
         <v>1</v>
       </c>
       <c r="C199">
@@ -10106,7 +10117,7 @@
       <c r="A200">
         <v>199</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="B200" t="s">
         <v>1</v>
       </c>
       <c r="C200">
@@ -10117,7 +10128,7 @@
       <c r="A201">
         <v>200</v>
       </c>
-      <c r="B201" s="6" t="s">
+      <c r="B201" t="s">
         <v>1</v>
       </c>
       <c r="C201">
@@ -10128,7 +10139,7 @@
       <c r="A202">
         <v>201</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="B202" t="s">
         <v>1</v>
       </c>
       <c r="C202">
@@ -10139,7 +10150,7 @@
       <c r="A203">
         <v>202</v>
       </c>
-      <c r="B203" s="6" t="s">
+      <c r="B203" t="s">
         <v>1</v>
       </c>
       <c r="C203">
@@ -10150,7 +10161,7 @@
       <c r="A204">
         <v>203</v>
       </c>
-      <c r="B204" s="6" t="s">
+      <c r="B204" t="s">
         <v>1</v>
       </c>
       <c r="C204">
@@ -10161,7 +10172,7 @@
       <c r="A205">
         <v>204</v>
       </c>
-      <c r="B205" s="6" t="s">
+      <c r="B205" t="s">
         <v>1</v>
       </c>
       <c r="C205">
@@ -10172,7 +10183,7 @@
       <c r="A206">
         <v>205</v>
       </c>
-      <c r="B206" s="6" t="s">
+      <c r="B206" t="s">
         <v>1</v>
       </c>
       <c r="C206">
@@ -10183,7 +10194,7 @@
       <c r="A207">
         <v>206</v>
       </c>
-      <c r="B207" s="6" t="s">
+      <c r="B207" t="s">
         <v>1</v>
       </c>
       <c r="C207">
@@ -10194,7 +10205,7 @@
       <c r="A208">
         <v>207</v>
       </c>
-      <c r="B208" s="6" t="s">
+      <c r="B208" t="s">
         <v>1</v>
       </c>
       <c r="C208">
@@ -10205,7 +10216,7 @@
       <c r="A209">
         <v>208</v>
       </c>
-      <c r="B209" s="6" t="s">
+      <c r="B209" t="s">
         <v>1</v>
       </c>
       <c r="C209">
@@ -10216,7 +10227,7 @@
       <c r="A210">
         <v>209</v>
       </c>
-      <c r="B210" s="6" t="s">
+      <c r="B210" t="s">
         <v>1</v>
       </c>
       <c r="C210">
@@ -10227,7 +10238,7 @@
       <c r="A211">
         <v>210</v>
       </c>
-      <c r="B211" s="6" t="s">
+      <c r="B211" t="s">
         <v>1</v>
       </c>
       <c r="C211">
@@ -10238,7 +10249,7 @@
       <c r="A212">
         <v>211</v>
       </c>
-      <c r="B212" s="6" t="s">
+      <c r="B212" t="s">
         <v>1</v>
       </c>
       <c r="C212">
@@ -10249,7 +10260,7 @@
       <c r="A213">
         <v>212</v>
       </c>
-      <c r="B213" s="6" t="s">
+      <c r="B213" t="s">
         <v>1</v>
       </c>
       <c r="C213">
@@ -10260,7 +10271,7 @@
       <c r="A214">
         <v>213</v>
       </c>
-      <c r="B214" s="6" t="s">
+      <c r="B214" t="s">
         <v>1</v>
       </c>
       <c r="C214">
@@ -10271,7 +10282,7 @@
       <c r="A215">
         <v>214</v>
       </c>
-      <c r="B215" s="6" t="s">
+      <c r="B215" t="s">
         <v>1</v>
       </c>
       <c r="C215">
@@ -10282,7 +10293,7 @@
       <c r="A216">
         <v>215</v>
       </c>
-      <c r="B216" s="6" t="s">
+      <c r="B216" t="s">
         <v>1</v>
       </c>
       <c r="C216">
@@ -10293,7 +10304,7 @@
       <c r="A217">
         <v>216</v>
       </c>
-      <c r="B217" s="6" t="s">
+      <c r="B217" t="s">
         <v>1</v>
       </c>
       <c r="C217">
@@ -10304,7 +10315,7 @@
       <c r="A218">
         <v>217</v>
       </c>
-      <c r="B218" s="6" t="s">
+      <c r="B218" t="s">
         <v>1</v>
       </c>
       <c r="C218">
@@ -10315,7 +10326,7 @@
       <c r="A219">
         <v>218</v>
       </c>
-      <c r="B219" s="6" t="s">
+      <c r="B219" t="s">
         <v>1</v>
       </c>
       <c r="C219">
@@ -10326,7 +10337,7 @@
       <c r="A220">
         <v>219</v>
       </c>
-      <c r="B220" s="6" t="s">
+      <c r="B220" t="s">
         <v>1</v>
       </c>
       <c r="C220">
@@ -10337,7 +10348,7 @@
       <c r="A221">
         <v>220</v>
       </c>
-      <c r="B221" s="6" t="s">
+      <c r="B221" t="s">
         <v>1</v>
       </c>
       <c r="C221">
@@ -10348,7 +10359,7 @@
       <c r="A222">
         <v>221</v>
       </c>
-      <c r="B222" s="6" t="s">
+      <c r="B222" t="s">
         <v>1</v>
       </c>
       <c r="C222">
@@ -10359,7 +10370,7 @@
       <c r="A223">
         <v>222</v>
       </c>
-      <c r="B223" s="6" t="s">
+      <c r="B223" t="s">
         <v>1</v>
       </c>
       <c r="C223">
@@ -10370,7 +10381,7 @@
       <c r="A224">
         <v>223</v>
       </c>
-      <c r="B224" s="6" t="s">
+      <c r="B224" t="s">
         <v>1</v>
       </c>
       <c r="C224">
@@ -10381,7 +10392,7 @@
       <c r="A225">
         <v>224</v>
       </c>
-      <c r="B225" s="6" t="s">
+      <c r="B225" t="s">
         <v>1</v>
       </c>
       <c r="C225">
@@ -10392,7 +10403,7 @@
       <c r="A226">
         <v>225</v>
       </c>
-      <c r="B226" s="6" t="s">
+      <c r="B226" t="s">
         <v>1</v>
       </c>
       <c r="C226">
@@ -10403,7 +10414,7 @@
       <c r="A227">
         <v>226</v>
       </c>
-      <c r="B227" s="6" t="s">
+      <c r="B227" t="s">
         <v>1</v>
       </c>
       <c r="C227">
@@ -10414,7 +10425,7 @@
       <c r="A228">
         <v>227</v>
       </c>
-      <c r="B228" s="6" t="s">
+      <c r="B228" t="s">
         <v>1</v>
       </c>
       <c r="C228">
@@ -10425,7 +10436,7 @@
       <c r="A229">
         <v>228</v>
       </c>
-      <c r="B229" s="6" t="s">
+      <c r="B229" t="s">
         <v>1</v>
       </c>
       <c r="C229">
@@ -10436,7 +10447,7 @@
       <c r="A230">
         <v>229</v>
       </c>
-      <c r="B230" s="6" t="s">
+      <c r="B230" t="s">
         <v>1</v>
       </c>
       <c r="C230">
@@ -10447,7 +10458,7 @@
       <c r="A231">
         <v>230</v>
       </c>
-      <c r="B231" s="6" t="s">
+      <c r="B231" t="s">
         <v>1</v>
       </c>
       <c r="C231">
@@ -10458,7 +10469,7 @@
       <c r="A232">
         <v>231</v>
       </c>
-      <c r="B232" s="6" t="s">
+      <c r="B232" t="s">
         <v>1</v>
       </c>
       <c r="C232">
@@ -10469,7 +10480,7 @@
       <c r="A233">
         <v>232</v>
       </c>
-      <c r="B233" s="6" t="s">
+      <c r="B233" t="s">
         <v>1</v>
       </c>
       <c r="C233">
@@ -10480,7 +10491,7 @@
       <c r="A234">
         <v>233</v>
       </c>
-      <c r="B234" s="6" t="s">
+      <c r="B234" t="s">
         <v>1</v>
       </c>
       <c r="C234">
@@ -10491,7 +10502,7 @@
       <c r="A235">
         <v>234</v>
       </c>
-      <c r="B235" s="6" t="s">
+      <c r="B235" t="s">
         <v>1</v>
       </c>
       <c r="C235">
@@ -10502,7 +10513,7 @@
       <c r="A236">
         <v>235</v>
       </c>
-      <c r="B236" s="6" t="s">
+      <c r="B236" t="s">
         <v>1</v>
       </c>
       <c r="C236">
@@ -10513,7 +10524,7 @@
       <c r="A237">
         <v>236</v>
       </c>
-      <c r="B237" s="6" t="s">
+      <c r="B237" t="s">
         <v>1</v>
       </c>
       <c r="C237">
@@ -10524,7 +10535,7 @@
       <c r="A238">
         <v>237</v>
       </c>
-      <c r="B238" s="6" t="s">
+      <c r="B238" t="s">
         <v>1</v>
       </c>
       <c r="C238">
@@ -10535,7 +10546,7 @@
       <c r="A239">
         <v>238</v>
       </c>
-      <c r="B239" s="6" t="s">
+      <c r="B239" t="s">
         <v>1</v>
       </c>
       <c r="C239">
@@ -10546,7 +10557,7 @@
       <c r="A240">
         <v>239</v>
       </c>
-      <c r="B240" s="6" t="s">
+      <c r="B240" t="s">
         <v>1</v>
       </c>
       <c r="C240">
@@ -10557,7 +10568,7 @@
       <c r="A241">
         <v>240</v>
       </c>
-      <c r="B241" s="6" t="s">
+      <c r="B241" t="s">
         <v>1</v>
       </c>
       <c r="C241">
@@ -10568,7 +10579,7 @@
       <c r="A242">
         <v>241</v>
       </c>
-      <c r="B242" s="6" t="s">
+      <c r="B242" t="s">
         <v>1</v>
       </c>
       <c r="C242">
@@ -10579,7 +10590,7 @@
       <c r="A243">
         <v>242</v>
       </c>
-      <c r="B243" s="6" t="s">
+      <c r="B243" t="s">
         <v>1</v>
       </c>
       <c r="C243">
@@ -10590,7 +10601,7 @@
       <c r="A244">
         <v>243</v>
       </c>
-      <c r="B244" s="6" t="s">
+      <c r="B244" t="s">
         <v>1</v>
       </c>
       <c r="C244">
@@ -10601,7 +10612,7 @@
       <c r="A245">
         <v>244</v>
       </c>
-      <c r="B245" s="6" t="s">
+      <c r="B245" t="s">
         <v>1</v>
       </c>
       <c r="C245">
@@ -10612,7 +10623,7 @@
       <c r="A246">
         <v>245</v>
       </c>
-      <c r="B246" s="6" t="s">
+      <c r="B246" t="s">
         <v>1</v>
       </c>
       <c r="C246">
@@ -10623,7 +10634,7 @@
       <c r="A247">
         <v>246</v>
       </c>
-      <c r="B247" s="6" t="s">
+      <c r="B247" t="s">
         <v>1</v>
       </c>
       <c r="C247">
@@ -10634,7 +10645,7 @@
       <c r="A248">
         <v>247</v>
       </c>
-      <c r="B248" s="6" t="s">
+      <c r="B248" t="s">
         <v>1</v>
       </c>
       <c r="C248">
@@ -10645,7 +10656,7 @@
       <c r="A249">
         <v>248</v>
       </c>
-      <c r="B249" s="6" t="s">
+      <c r="B249" t="s">
         <v>1</v>
       </c>
       <c r="C249">
@@ -10656,7 +10667,7 @@
       <c r="A250">
         <v>249</v>
       </c>
-      <c r="B250" s="6" t="s">
+      <c r="B250" t="s">
         <v>1</v>
       </c>
       <c r="C250">
@@ -10667,7 +10678,7 @@
       <c r="A251">
         <v>250</v>
       </c>
-      <c r="B251" s="6" t="s">
+      <c r="B251" t="s">
         <v>1</v>
       </c>
       <c r="C251">
@@ -10678,7 +10689,7 @@
       <c r="A252">
         <v>251</v>
       </c>
-      <c r="B252" s="6" t="s">
+      <c r="B252" t="s">
         <v>1</v>
       </c>
       <c r="C252">
@@ -10689,7 +10700,7 @@
       <c r="A253">
         <v>252</v>
       </c>
-      <c r="B253" s="6" t="s">
+      <c r="B253" t="s">
         <v>1</v>
       </c>
       <c r="C253">
@@ -10700,7 +10711,7 @@
       <c r="A254">
         <v>253</v>
       </c>
-      <c r="B254" s="6" t="s">
+      <c r="B254" t="s">
         <v>1</v>
       </c>
       <c r="C254">
@@ -10711,7 +10722,7 @@
       <c r="A255">
         <v>254</v>
       </c>
-      <c r="B255" s="6" t="s">
+      <c r="B255" t="s">
         <v>1</v>
       </c>
       <c r="C255">
@@ -10722,7 +10733,7 @@
       <c r="A256">
         <v>255</v>
       </c>
-      <c r="B256" s="6" t="s">
+      <c r="B256" t="s">
         <v>1</v>
       </c>
       <c r="C256">
@@ -10733,7 +10744,7 @@
       <c r="A257">
         <v>256</v>
       </c>
-      <c r="B257" s="6" t="s">
+      <c r="B257" t="s">
         <v>1</v>
       </c>
       <c r="C257">
@@ -10744,7 +10755,7 @@
       <c r="A258">
         <v>257</v>
       </c>
-      <c r="B258" s="6" t="s">
+      <c r="B258" t="s">
         <v>1</v>
       </c>
       <c r="C258">
@@ -10755,7 +10766,7 @@
       <c r="A259">
         <v>258</v>
       </c>
-      <c r="B259" s="6" t="s">
+      <c r="B259" t="s">
         <v>1</v>
       </c>
       <c r="C259">
@@ -10766,7 +10777,7 @@
       <c r="A260">
         <v>259</v>
       </c>
-      <c r="B260" s="6" t="s">
+      <c r="B260" t="s">
         <v>1</v>
       </c>
       <c r="C260">
@@ -10777,7 +10788,7 @@
       <c r="A261">
         <v>260</v>
       </c>
-      <c r="B261" s="6" t="s">
+      <c r="B261" t="s">
         <v>1</v>
       </c>
       <c r="C261">
@@ -10788,7 +10799,7 @@
       <c r="A262">
         <v>261</v>
       </c>
-      <c r="B262" s="6" t="s">
+      <c r="B262" t="s">
         <v>1</v>
       </c>
       <c r="C262">
@@ -10799,7 +10810,7 @@
       <c r="A263">
         <v>262</v>
       </c>
-      <c r="B263" s="6" t="s">
+      <c r="B263" t="s">
         <v>1</v>
       </c>
       <c r="C263">
@@ -10810,7 +10821,7 @@
       <c r="A264">
         <v>263</v>
       </c>
-      <c r="B264" s="6" t="s">
+      <c r="B264" t="s">
         <v>1</v>
       </c>
       <c r="C264">
@@ -10821,7 +10832,7 @@
       <c r="A265">
         <v>264</v>
       </c>
-      <c r="B265" s="6" t="s">
+      <c r="B265" t="s">
         <v>1</v>
       </c>
       <c r="C265">
@@ -10832,7 +10843,7 @@
       <c r="A266">
         <v>265</v>
       </c>
-      <c r="B266" s="6" t="s">
+      <c r="B266" t="s">
         <v>1</v>
       </c>
       <c r="C266">
@@ -10843,7 +10854,7 @@
       <c r="A267">
         <v>266</v>
       </c>
-      <c r="B267" s="6" t="s">
+      <c r="B267" t="s">
         <v>1</v>
       </c>
       <c r="C267">
@@ -10854,7 +10865,7 @@
       <c r="A268">
         <v>267</v>
       </c>
-      <c r="B268" s="6" t="s">
+      <c r="B268" t="s">
         <v>1</v>
       </c>
       <c r="C268">
@@ -10865,7 +10876,7 @@
       <c r="A269">
         <v>268</v>
       </c>
-      <c r="B269" s="6" t="s">
+      <c r="B269" t="s">
         <v>1</v>
       </c>
       <c r="C269">
@@ -10876,7 +10887,7 @@
       <c r="A270">
         <v>269</v>
       </c>
-      <c r="B270" s="6" t="s">
+      <c r="B270" t="s">
         <v>1</v>
       </c>
       <c r="C270">
@@ -10887,7 +10898,7 @@
       <c r="A271">
         <v>270</v>
       </c>
-      <c r="B271" s="6" t="s">
+      <c r="B271" t="s">
         <v>1</v>
       </c>
       <c r="C271">
@@ -10898,7 +10909,7 @@
       <c r="A272">
         <v>271</v>
       </c>
-      <c r="B272" s="6" t="s">
+      <c r="B272" t="s">
         <v>1</v>
       </c>
       <c r="C272">
@@ -10909,7 +10920,7 @@
       <c r="A273">
         <v>272</v>
       </c>
-      <c r="B273" s="6" t="s">
+      <c r="B273" t="s">
         <v>1</v>
       </c>
       <c r="C273">
@@ -10920,7 +10931,7 @@
       <c r="A274">
         <v>273</v>
       </c>
-      <c r="B274" s="6" t="s">
+      <c r="B274" t="s">
         <v>1</v>
       </c>
       <c r="C274">
@@ -10931,7 +10942,7 @@
       <c r="A275">
         <v>274</v>
       </c>
-      <c r="B275" s="6" t="s">
+      <c r="B275" t="s">
         <v>1</v>
       </c>
       <c r="C275">
@@ -10942,7 +10953,7 @@
       <c r="A276">
         <v>275</v>
       </c>
-      <c r="B276" s="6" t="s">
+      <c r="B276" t="s">
         <v>1</v>
       </c>
       <c r="C276">
@@ -10953,7 +10964,7 @@
       <c r="A277">
         <v>276</v>
       </c>
-      <c r="B277" s="6" t="s">
+      <c r="B277" t="s">
         <v>1</v>
       </c>
       <c r="C277">
@@ -10964,7 +10975,7 @@
       <c r="A278">
         <v>277</v>
       </c>
-      <c r="B278" s="6" t="s">
+      <c r="B278" t="s">
         <v>1</v>
       </c>
       <c r="C278">
@@ -10975,7 +10986,7 @@
       <c r="A279">
         <v>278</v>
       </c>
-      <c r="B279" s="6" t="s">
+      <c r="B279" t="s">
         <v>1</v>
       </c>
       <c r="C279">
@@ -10986,7 +10997,7 @@
       <c r="A280">
         <v>279</v>
       </c>
-      <c r="B280" s="6" t="s">
+      <c r="B280" t="s">
         <v>1</v>
       </c>
       <c r="C280">
@@ -10997,7 +11008,7 @@
       <c r="A281">
         <v>280</v>
       </c>
-      <c r="B281" s="6" t="s">
+      <c r="B281" t="s">
         <v>1</v>
       </c>
       <c r="C281">
@@ -11008,7 +11019,7 @@
       <c r="A282">
         <v>281</v>
       </c>
-      <c r="B282" s="6" t="s">
+      <c r="B282" t="s">
         <v>1</v>
       </c>
       <c r="C282">
@@ -11019,7 +11030,7 @@
       <c r="A283">
         <v>282</v>
       </c>
-      <c r="B283" s="6" t="s">
+      <c r="B283" t="s">
         <v>1</v>
       </c>
       <c r="C283">
@@ -11030,7 +11041,7 @@
       <c r="A284">
         <v>283</v>
       </c>
-      <c r="B284" s="6" t="s">
+      <c r="B284" t="s">
         <v>1</v>
       </c>
       <c r="C284">
@@ -11041,7 +11052,7 @@
       <c r="A285">
         <v>284</v>
       </c>
-      <c r="B285" s="6" t="s">
+      <c r="B285" t="s">
         <v>1</v>
       </c>
       <c r="C285">
@@ -11052,7 +11063,7 @@
       <c r="A286">
         <v>285</v>
       </c>
-      <c r="B286" s="6" t="s">
+      <c r="B286" t="s">
         <v>1</v>
       </c>
       <c r="C286">
@@ -11063,7 +11074,7 @@
       <c r="A287">
         <v>286</v>
       </c>
-      <c r="B287" s="6" t="s">
+      <c r="B287" t="s">
         <v>1</v>
       </c>
       <c r="C287">
@@ -11074,7 +11085,7 @@
       <c r="A288">
         <v>287</v>
       </c>
-      <c r="B288" s="6" t="s">
+      <c r="B288" t="s">
         <v>1</v>
       </c>
       <c r="C288">
@@ -11085,7 +11096,7 @@
       <c r="A289">
         <v>288</v>
       </c>
-      <c r="B289" s="6" t="s">
+      <c r="B289" t="s">
         <v>1</v>
       </c>
       <c r="C289">
@@ -11096,7 +11107,7 @@
       <c r="A290">
         <v>289</v>
       </c>
-      <c r="B290" s="6" t="s">
+      <c r="B290" t="s">
         <v>1</v>
       </c>
       <c r="C290">
@@ -11107,7 +11118,7 @@
       <c r="A291">
         <v>290</v>
       </c>
-      <c r="B291" s="6" t="s">
+      <c r="B291" t="s">
         <v>1</v>
       </c>
       <c r="C291">
@@ -11118,7 +11129,7 @@
       <c r="A292">
         <v>291</v>
       </c>
-      <c r="B292" s="6" t="s">
+      <c r="B292" t="s">
         <v>1</v>
       </c>
       <c r="C292">
@@ -11129,7 +11140,7 @@
       <c r="A293">
         <v>292</v>
       </c>
-      <c r="B293" s="6" t="s">
+      <c r="B293" t="s">
         <v>1</v>
       </c>
       <c r="C293">
@@ -11140,7 +11151,7 @@
       <c r="A294">
         <v>293</v>
       </c>
-      <c r="B294" s="6" t="s">
+      <c r="B294" t="s">
         <v>1</v>
       </c>
       <c r="C294">
@@ -11151,7 +11162,7 @@
       <c r="A295">
         <v>294</v>
       </c>
-      <c r="B295" s="6" t="s">
+      <c r="B295" t="s">
         <v>1</v>
       </c>
       <c r="C295">
@@ -11162,7 +11173,7 @@
       <c r="A296">
         <v>295</v>
       </c>
-      <c r="B296" s="6" t="s">
+      <c r="B296" t="s">
         <v>1</v>
       </c>
       <c r="C296">
@@ -11173,7 +11184,7 @@
       <c r="A297">
         <v>296</v>
       </c>
-      <c r="B297" s="6" t="s">
+      <c r="B297" t="s">
         <v>1</v>
       </c>
       <c r="C297">
@@ -11184,7 +11195,7 @@
       <c r="A298">
         <v>297</v>
       </c>
-      <c r="B298" s="6" t="s">
+      <c r="B298" t="s">
         <v>1</v>
       </c>
       <c r="C298">
@@ -11195,7 +11206,7 @@
       <c r="A299">
         <v>298</v>
       </c>
-      <c r="B299" s="6" t="s">
+      <c r="B299" t="s">
         <v>1</v>
       </c>
       <c r="C299">
@@ -11206,7 +11217,7 @@
       <c r="A300">
         <v>299</v>
       </c>
-      <c r="B300" s="6" t="s">
+      <c r="B300" t="s">
         <v>1</v>
       </c>
       <c r="C300">
@@ -11217,7 +11228,7 @@
       <c r="A301">
         <v>300</v>
       </c>
-      <c r="B301" s="6" t="s">
+      <c r="B301" t="s">
         <v>1</v>
       </c>
       <c r="C301">
@@ -11262,7 +11273,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
@@ -11273,7 +11284,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
@@ -11284,7 +11295,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4">
@@ -11295,7 +11306,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5">
@@ -11306,7 +11317,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6">
@@ -11317,7 +11328,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7">
@@ -11328,7 +11339,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8">
@@ -11339,7 +11350,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9">
@@ -11350,7 +11361,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10">
@@ -11361,7 +11372,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11">
@@ -11372,7 +11383,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" t="s">
         <v>1</v>
       </c>
       <c r="C12">
@@ -11383,7 +11394,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13">
@@ -11394,7 +11405,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14">
@@ -11405,7 +11416,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="C15">
@@ -11416,7 +11427,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" t="s">
         <v>1</v>
       </c>
       <c r="C16">
@@ -11427,7 +11438,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" t="s">
         <v>1</v>
       </c>
       <c r="C17">
@@ -11438,7 +11449,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" t="s">
         <v>1</v>
       </c>
       <c r="C18">
@@ -11449,7 +11460,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" t="s">
         <v>1</v>
       </c>
       <c r="C19">
@@ -11460,7 +11471,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" t="s">
         <v>1</v>
       </c>
       <c r="C20">
@@ -11471,7 +11482,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" t="s">
         <v>1</v>
       </c>
       <c r="C21">
@@ -11482,7 +11493,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" t="s">
         <v>1</v>
       </c>
       <c r="C22">
@@ -11493,7 +11504,7 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" t="s">
         <v>1</v>
       </c>
       <c r="C23">
@@ -11504,7 +11515,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" t="s">
         <v>1</v>
       </c>
       <c r="C24">
@@ -11515,7 +11526,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" t="s">
         <v>1</v>
       </c>
       <c r="C25">
@@ -11526,7 +11537,7 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" t="s">
         <v>1</v>
       </c>
       <c r="C26">
@@ -11537,7 +11548,7 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" t="s">
         <v>1</v>
       </c>
       <c r="C27">
@@ -11548,7 +11559,7 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" t="s">
         <v>1</v>
       </c>
       <c r="C28">
@@ -11559,7 +11570,7 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" t="s">
         <v>1</v>
       </c>
       <c r="C29">
@@ -11570,7 +11581,7 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" t="s">
         <v>1</v>
       </c>
       <c r="C30">
@@ -11581,7 +11592,7 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" t="s">
         <v>1</v>
       </c>
       <c r="C31">
@@ -11592,7 +11603,7 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" t="s">
         <v>1</v>
       </c>
       <c r="C32">
@@ -11603,7 +11614,7 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" t="s">
         <v>1</v>
       </c>
       <c r="C33">
@@ -11614,7 +11625,7 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" t="s">
         <v>1</v>
       </c>
       <c r="C34">
@@ -11625,7 +11636,7 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" t="s">
         <v>1</v>
       </c>
       <c r="C35">
@@ -11636,7 +11647,7 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" t="s">
         <v>1</v>
       </c>
       <c r="C36">
@@ -11647,7 +11658,7 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" t="s">
         <v>1</v>
       </c>
       <c r="C37">
@@ -11658,7 +11669,7 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" t="s">
         <v>1</v>
       </c>
       <c r="C38">
@@ -11669,7 +11680,7 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" t="s">
         <v>1</v>
       </c>
       <c r="C39">
@@ -11680,7 +11691,7 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" t="s">
         <v>1</v>
       </c>
       <c r="C40">
@@ -11691,7 +11702,7 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" t="s">
         <v>1</v>
       </c>
       <c r="C41">
@@ -11702,7 +11713,7 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" t="s">
         <v>1</v>
       </c>
       <c r="C42">
@@ -11713,7 +11724,7 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" t="s">
         <v>1</v>
       </c>
       <c r="C43">
@@ -11724,7 +11735,7 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" t="s">
         <v>1</v>
       </c>
       <c r="C44">
@@ -11735,7 +11746,7 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" t="s">
         <v>1</v>
       </c>
       <c r="C45">
@@ -11746,7 +11757,7 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" t="s">
         <v>1</v>
       </c>
       <c r="C46">
@@ -11757,7 +11768,7 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" t="s">
         <v>1</v>
       </c>
       <c r="C47">
@@ -11768,7 +11779,7 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" t="s">
         <v>1</v>
       </c>
       <c r="C48">
@@ -11779,7 +11790,7 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" t="s">
         <v>1</v>
       </c>
       <c r="C49">
@@ -11790,7 +11801,7 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" t="s">
         <v>1</v>
       </c>
       <c r="C50">
@@ -11801,7 +11812,7 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" t="s">
         <v>1</v>
       </c>
       <c r="C51">
@@ -11812,7 +11823,7 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" t="s">
         <v>1</v>
       </c>
       <c r="C52">
@@ -11823,7 +11834,7 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" t="s">
         <v>1</v>
       </c>
       <c r="C53">
@@ -11834,7 +11845,7 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" t="s">
         <v>1</v>
       </c>
       <c r="C54">
@@ -11845,7 +11856,7 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" t="s">
         <v>1</v>
       </c>
       <c r="C55">
@@ -11856,7 +11867,7 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" t="s">
         <v>1</v>
       </c>
       <c r="C56">
@@ -11867,7 +11878,7 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" t="s">
         <v>1</v>
       </c>
       <c r="C57">
@@ -11878,7 +11889,7 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" t="s">
         <v>1</v>
       </c>
       <c r="C58">
@@ -11889,7 +11900,7 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" t="s">
         <v>1</v>
       </c>
       <c r="C59">
@@ -11900,7 +11911,7 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" t="s">
         <v>1</v>
       </c>
       <c r="C60">
@@ -11911,7 +11922,7 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" t="s">
         <v>1</v>
       </c>
       <c r="C61">
@@ -11922,7 +11933,7 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" t="s">
         <v>1</v>
       </c>
       <c r="C62">
@@ -11933,7 +11944,7 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" t="s">
         <v>1</v>
       </c>
       <c r="C63">
@@ -11944,7 +11955,7 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" t="s">
         <v>1</v>
       </c>
       <c r="C64">
@@ -11955,7 +11966,7 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" t="s">
         <v>1</v>
       </c>
       <c r="C65">
@@ -11966,7 +11977,7 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" t="s">
         <v>1</v>
       </c>
       <c r="C66">
@@ -11977,7 +11988,7 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" t="s">
         <v>1</v>
       </c>
       <c r="C67">
@@ -11988,7 +11999,7 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" t="s">
         <v>1</v>
       </c>
       <c r="C68">
@@ -11999,7 +12010,7 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" t="s">
         <v>1</v>
       </c>
       <c r="C69">
@@ -12010,7 +12021,7 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" t="s">
         <v>1</v>
       </c>
       <c r="C70">
@@ -12021,7 +12032,7 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" t="s">
         <v>1</v>
       </c>
       <c r="C71">
@@ -12032,7 +12043,7 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" t="s">
         <v>1</v>
       </c>
       <c r="C72">
@@ -12043,7 +12054,7 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" t="s">
         <v>1</v>
       </c>
       <c r="C73">
@@ -12054,7 +12065,7 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" t="s">
         <v>1</v>
       </c>
       <c r="C74">
@@ -12065,7 +12076,7 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" t="s">
         <v>1</v>
       </c>
       <c r="C75">
@@ -12076,7 +12087,7 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" t="s">
         <v>1</v>
       </c>
       <c r="C76">
@@ -12087,7 +12098,7 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" t="s">
         <v>1</v>
       </c>
       <c r="C77">
@@ -12098,7 +12109,7 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" t="s">
         <v>1</v>
       </c>
       <c r="C78">
@@ -12109,7 +12120,7 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" t="s">
         <v>1</v>
       </c>
       <c r="C79">
@@ -12120,7 +12131,7 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" t="s">
         <v>1</v>
       </c>
       <c r="C80">
@@ -12131,7 +12142,7 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" t="s">
         <v>1</v>
       </c>
       <c r="C81">
@@ -12142,7 +12153,7 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" t="s">
         <v>1</v>
       </c>
       <c r="C82">
@@ -12153,7 +12164,7 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" t="s">
         <v>1</v>
       </c>
       <c r="C83">
@@ -12164,7 +12175,7 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" t="s">
         <v>1</v>
       </c>
       <c r="C84">
@@ -12175,7 +12186,7 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" t="s">
         <v>1</v>
       </c>
       <c r="C85">
@@ -12186,7 +12197,7 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" t="s">
         <v>1</v>
       </c>
       <c r="C86">
@@ -12197,7 +12208,7 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" t="s">
         <v>1</v>
       </c>
       <c r="C87">
@@ -12208,7 +12219,7 @@
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" t="s">
         <v>1</v>
       </c>
       <c r="C88">
@@ -12219,7 +12230,7 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" t="s">
         <v>1</v>
       </c>
       <c r="C89">
@@ -12230,7 +12241,7 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" t="s">
         <v>1</v>
       </c>
       <c r="C90">
@@ -12241,7 +12252,7 @@
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" t="s">
         <v>1</v>
       </c>
       <c r="C91">
@@ -12252,7 +12263,7 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" t="s">
         <v>1</v>
       </c>
       <c r="C92">
@@ -12263,7 +12274,7 @@
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" t="s">
         <v>1</v>
       </c>
       <c r="C93">
@@ -12274,7 +12285,7 @@
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" t="s">
         <v>1</v>
       </c>
       <c r="C94">
@@ -12285,7 +12296,7 @@
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" t="s">
         <v>1</v>
       </c>
       <c r="C95">
@@ -12296,7 +12307,7 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" t="s">
         <v>1</v>
       </c>
       <c r="C96">
@@ -12307,7 +12318,7 @@
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" t="s">
         <v>1</v>
       </c>
       <c r="C97">
@@ -12318,7 +12329,7 @@
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" t="s">
         <v>1</v>
       </c>
       <c r="C98">
@@ -12329,7 +12340,7 @@
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" t="s">
         <v>1</v>
       </c>
       <c r="C99">
@@ -12340,7 +12351,7 @@
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" t="s">
         <v>1</v>
       </c>
       <c r="C100">
@@ -12351,7 +12362,7 @@
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" t="s">
         <v>1</v>
       </c>
       <c r="C101">
@@ -12362,7 +12373,7 @@
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" t="s">
         <v>1</v>
       </c>
       <c r="C102">
@@ -12373,7 +12384,7 @@
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" t="s">
         <v>1</v>
       </c>
       <c r="C103">
@@ -12384,7 +12395,7 @@
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" t="s">
         <v>1</v>
       </c>
       <c r="C104">
@@ -12395,7 +12406,7 @@
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" t="s">
         <v>1</v>
       </c>
       <c r="C105">
@@ -12406,7 +12417,7 @@
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" t="s">
         <v>1</v>
       </c>
       <c r="C106">
@@ -12417,7 +12428,7 @@
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" t="s">
         <v>1</v>
       </c>
       <c r="C107">
@@ -12428,7 +12439,7 @@
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" t="s">
         <v>1</v>
       </c>
       <c r="C108">
@@ -12439,7 +12450,7 @@
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" t="s">
         <v>1</v>
       </c>
       <c r="C109">
@@ -12450,7 +12461,7 @@
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" t="s">
         <v>1</v>
       </c>
       <c r="C110">
@@ -12461,7 +12472,7 @@
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" t="s">
         <v>1</v>
       </c>
       <c r="C111">
@@ -12472,7 +12483,7 @@
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" t="s">
         <v>1</v>
       </c>
       <c r="C112">
@@ -12483,7 +12494,7 @@
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" t="s">
         <v>1</v>
       </c>
       <c r="C113">
@@ -12494,7 +12505,7 @@
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" t="s">
         <v>1</v>
       </c>
       <c r="C114">
@@ -12505,7 +12516,7 @@
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" t="s">
         <v>1</v>
       </c>
       <c r="C115">
@@ -12516,7 +12527,7 @@
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" t="s">
         <v>1</v>
       </c>
       <c r="C116">
@@ -12527,7 +12538,7 @@
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" t="s">
         <v>1</v>
       </c>
       <c r="C117">
@@ -12538,7 +12549,7 @@
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" t="s">
         <v>1</v>
       </c>
       <c r="C118">
@@ -12549,7 +12560,7 @@
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" t="s">
         <v>1</v>
       </c>
       <c r="C119">
@@ -12560,7 +12571,7 @@
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" t="s">
         <v>1</v>
       </c>
       <c r="C120">
@@ -12571,7 +12582,7 @@
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" t="s">
         <v>1</v>
       </c>
       <c r="C121">
@@ -12582,7 +12593,7 @@
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" t="s">
         <v>1</v>
       </c>
       <c r="C122">
@@ -12593,7 +12604,7 @@
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" t="s">
         <v>1</v>
       </c>
       <c r="C123">
@@ -12604,7 +12615,7 @@
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" t="s">
         <v>1</v>
       </c>
       <c r="C124">
@@ -12615,7 +12626,7 @@
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" t="s">
         <v>1</v>
       </c>
       <c r="C125">
@@ -12626,7 +12637,7 @@
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" t="s">
         <v>1</v>
       </c>
       <c r="C126">
@@ -12637,7 +12648,7 @@
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" t="s">
         <v>1</v>
       </c>
       <c r="C127">
@@ -12648,7 +12659,7 @@
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" t="s">
         <v>1</v>
       </c>
       <c r="C128">
@@ -12659,7 +12670,7 @@
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" t="s">
         <v>1</v>
       </c>
       <c r="C129">
@@ -12670,7 +12681,7 @@
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" t="s">
         <v>1</v>
       </c>
       <c r="C130">
@@ -12681,7 +12692,7 @@
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" t="s">
         <v>1</v>
       </c>
       <c r="C131">
@@ -12692,7 +12703,7 @@
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" t="s">
         <v>1</v>
       </c>
       <c r="C132">
@@ -12703,7 +12714,7 @@
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" t="s">
         <v>1</v>
       </c>
       <c r="C133">
@@ -12714,7 +12725,7 @@
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" t="s">
         <v>1</v>
       </c>
       <c r="C134">
@@ -12725,7 +12736,7 @@
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" t="s">
         <v>1</v>
       </c>
       <c r="C135">
@@ -12736,7 +12747,7 @@
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" t="s">
         <v>1</v>
       </c>
       <c r="C136">
@@ -12747,7 +12758,7 @@
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" t="s">
         <v>1</v>
       </c>
       <c r="C137">
@@ -12758,7 +12769,7 @@
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" t="s">
         <v>1</v>
       </c>
       <c r="C138">
@@ -12769,7 +12780,7 @@
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" t="s">
         <v>1</v>
       </c>
       <c r="C139">
@@ -12780,7 +12791,7 @@
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" t="s">
         <v>1</v>
       </c>
       <c r="C140">
@@ -12791,7 +12802,7 @@
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" t="s">
         <v>1</v>
       </c>
       <c r="C141">
@@ -12802,7 +12813,7 @@
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" t="s">
         <v>1</v>
       </c>
       <c r="C142">
@@ -12813,7 +12824,7 @@
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" t="s">
         <v>1</v>
       </c>
       <c r="C143">
@@ -12824,7 +12835,7 @@
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B144" t="s">
         <v>1</v>
       </c>
       <c r="C144">
@@ -12835,7 +12846,7 @@
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B145" t="s">
         <v>1</v>
       </c>
       <c r="C145">
@@ -12846,7 +12857,7 @@
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" t="s">
         <v>1</v>
       </c>
       <c r="C146">
@@ -12857,7 +12868,7 @@
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" t="s">
         <v>1</v>
       </c>
       <c r="C147">
@@ -12868,7 +12879,7 @@
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" t="s">
         <v>1</v>
       </c>
       <c r="C148">
@@ -12879,7 +12890,7 @@
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" t="s">
         <v>1</v>
       </c>
       <c r="C149">
@@ -12890,7 +12901,7 @@
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" t="s">
         <v>1</v>
       </c>
       <c r="C150">
@@ -12901,7 +12912,7 @@
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" t="s">
         <v>1</v>
       </c>
       <c r="C151">
@@ -12912,7 +12923,7 @@
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B152" t="s">
         <v>1</v>
       </c>
       <c r="C152">
@@ -12923,7 +12934,7 @@
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" t="s">
         <v>1</v>
       </c>
       <c r="C153">
@@ -12934,7 +12945,7 @@
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B154" t="s">
         <v>1</v>
       </c>
       <c r="C154">
@@ -12945,7 +12956,7 @@
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B155" t="s">
         <v>1</v>
       </c>
       <c r="C155">
@@ -12956,7 +12967,7 @@
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B156" t="s">
         <v>1</v>
       </c>
       <c r="C156">
@@ -12967,7 +12978,7 @@
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B157" t="s">
         <v>1</v>
       </c>
       <c r="C157">
@@ -12978,7 +12989,7 @@
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B158" t="s">
         <v>1</v>
       </c>
       <c r="C158">
@@ -12989,7 +13000,7 @@
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" t="s">
         <v>1</v>
       </c>
       <c r="C159">
@@ -13000,7 +13011,7 @@
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" t="s">
         <v>1</v>
       </c>
       <c r="C160">
@@ -13011,7 +13022,7 @@
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" t="s">
         <v>1</v>
       </c>
       <c r="C161">
@@ -13022,7 +13033,7 @@
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B162" t="s">
         <v>1</v>
       </c>
       <c r="C162">
@@ -13033,7 +13044,7 @@
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" t="s">
         <v>1</v>
       </c>
       <c r="C163">
@@ -13044,7 +13055,7 @@
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B164" t="s">
         <v>1</v>
       </c>
       <c r="C164">
@@ -13055,7 +13066,7 @@
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B165" t="s">
         <v>1</v>
       </c>
       <c r="C165">
@@ -13066,7 +13077,7 @@
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" t="s">
         <v>1</v>
       </c>
       <c r="C166">
@@ -13077,7 +13088,7 @@
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" t="s">
         <v>1</v>
       </c>
       <c r="C167">
@@ -13088,7 +13099,7 @@
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B168" t="s">
         <v>1</v>
       </c>
       <c r="C168">
@@ -13099,7 +13110,7 @@
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="B169" t="s">
         <v>1</v>
       </c>
       <c r="C169">
@@ -13110,7 +13121,7 @@
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" t="s">
         <v>1</v>
       </c>
       <c r="C170">
@@ -13121,7 +13132,7 @@
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B171" t="s">
         <v>1</v>
       </c>
       <c r="C171">
@@ -13132,7 +13143,7 @@
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B172" t="s">
         <v>1</v>
       </c>
       <c r="C172">
@@ -13143,7 +13154,7 @@
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B173" t="s">
         <v>1</v>
       </c>
       <c r="C173">
@@ -13154,7 +13165,7 @@
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B174" t="s">
         <v>1</v>
       </c>
       <c r="C174">
@@ -13165,7 +13176,7 @@
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="B175" t="s">
         <v>1</v>
       </c>
       <c r="C175">
@@ -13176,7 +13187,7 @@
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="B176" t="s">
         <v>1</v>
       </c>
       <c r="C176">
@@ -13187,7 +13198,7 @@
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="B177" t="s">
         <v>1</v>
       </c>
       <c r="C177">
@@ -13198,7 +13209,7 @@
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="B178" t="s">
         <v>1</v>
       </c>
       <c r="C178">
@@ -13209,7 +13220,7 @@
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B179" t="s">
         <v>1</v>
       </c>
       <c r="C179">
@@ -13220,7 +13231,7 @@
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" s="6" t="s">
+      <c r="B180" t="s">
         <v>1</v>
       </c>
       <c r="C180">
@@ -13231,7 +13242,7 @@
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="B181" t="s">
         <v>1</v>
       </c>
       <c r="C181">
@@ -13242,7 +13253,7 @@
       <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" s="6" t="s">
+      <c r="B182" t="s">
         <v>1</v>
       </c>
       <c r="C182">
@@ -13253,7 +13264,7 @@
       <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" s="6" t="s">
+      <c r="B183" t="s">
         <v>1</v>
       </c>
       <c r="C183">
@@ -13264,7 +13275,7 @@
       <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="B184" t="s">
         <v>1</v>
       </c>
       <c r="C184">
@@ -13275,7 +13286,7 @@
       <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="B185" t="s">
         <v>1</v>
       </c>
       <c r="C185">
@@ -13286,7 +13297,7 @@
       <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="B186" t="s">
         <v>1</v>
       </c>
       <c r="C186">
@@ -13297,7 +13308,7 @@
       <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="B187" t="s">
         <v>1</v>
       </c>
       <c r="C187">
@@ -13308,7 +13319,7 @@
       <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="B188" t="s">
         <v>1</v>
       </c>
       <c r="C188">
@@ -13319,7 +13330,7 @@
       <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="B189" t="s">
         <v>1</v>
       </c>
       <c r="C189">
@@ -13330,7 +13341,7 @@
       <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="B190" t="s">
         <v>1</v>
       </c>
       <c r="C190">
@@ -13341,7 +13352,7 @@
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="B191" t="s">
         <v>1</v>
       </c>
       <c r="C191">
@@ -13352,7 +13363,7 @@
       <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="B192" t="s">
         <v>1</v>
       </c>
       <c r="C192">
@@ -13363,7 +13374,7 @@
       <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" s="6" t="s">
+      <c r="B193" t="s">
         <v>1</v>
       </c>
       <c r="C193">
@@ -13374,7 +13385,7 @@
       <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="B194" t="s">
         <v>1</v>
       </c>
       <c r="C194">
@@ -13385,7 +13396,7 @@
       <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" s="6" t="s">
+      <c r="B195" t="s">
         <v>1</v>
       </c>
       <c r="C195">
@@ -13396,7 +13407,7 @@
       <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196" s="6" t="s">
+      <c r="B196" t="s">
         <v>1</v>
       </c>
       <c r="C196">
@@ -13407,7 +13418,7 @@
       <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197" s="6" t="s">
+      <c r="B197" t="s">
         <v>1</v>
       </c>
       <c r="C197">
@@ -13418,7 +13429,7 @@
       <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198" s="6" t="s">
+      <c r="B198" t="s">
         <v>1</v>
       </c>
       <c r="C198">
@@ -13429,7 +13440,7 @@
       <c r="A199">
         <v>198</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="B199" t="s">
         <v>1</v>
       </c>
       <c r="C199">
@@ -13440,7 +13451,7 @@
       <c r="A200">
         <v>199</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="B200" t="s">
         <v>1</v>
       </c>
       <c r="C200">
@@ -13451,7 +13462,7 @@
       <c r="A201">
         <v>200</v>
       </c>
-      <c r="B201" s="6" t="s">
+      <c r="B201" t="s">
         <v>1</v>
       </c>
       <c r="C201">
@@ -13462,7 +13473,7 @@
       <c r="A202">
         <v>201</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="B202" t="s">
         <v>1</v>
       </c>
       <c r="C202">
@@ -13473,7 +13484,7 @@
       <c r="A203">
         <v>202</v>
       </c>
-      <c r="B203" s="6" t="s">
+      <c r="B203" t="s">
         <v>1</v>
       </c>
       <c r="C203">
@@ -13484,7 +13495,7 @@
       <c r="A204">
         <v>203</v>
       </c>
-      <c r="B204" s="6" t="s">
+      <c r="B204" t="s">
         <v>1</v>
       </c>
       <c r="C204">
@@ -13495,7 +13506,7 @@
       <c r="A205">
         <v>204</v>
       </c>
-      <c r="B205" s="6" t="s">
+      <c r="B205" t="s">
         <v>1</v>
       </c>
       <c r="C205">
@@ -13506,7 +13517,7 @@
       <c r="A206">
         <v>205</v>
       </c>
-      <c r="B206" s="6" t="s">
+      <c r="B206" t="s">
         <v>1</v>
       </c>
       <c r="C206">
@@ -13517,7 +13528,7 @@
       <c r="A207">
         <v>206</v>
       </c>
-      <c r="B207" s="6" t="s">
+      <c r="B207" t="s">
         <v>1</v>
       </c>
       <c r="C207">
@@ -13528,7 +13539,7 @@
       <c r="A208">
         <v>207</v>
       </c>
-      <c r="B208" s="6" t="s">
+      <c r="B208" t="s">
         <v>1</v>
       </c>
       <c r="C208">
@@ -13539,7 +13550,7 @@
       <c r="A209">
         <v>208</v>
       </c>
-      <c r="B209" s="6" t="s">
+      <c r="B209" t="s">
         <v>1</v>
       </c>
       <c r="C209">
@@ -13550,7 +13561,7 @@
       <c r="A210">
         <v>209</v>
       </c>
-      <c r="B210" s="6" t="s">
+      <c r="B210" t="s">
         <v>1</v>
       </c>
       <c r="C210">
@@ -13561,7 +13572,7 @@
       <c r="A211">
         <v>210</v>
       </c>
-      <c r="B211" s="6" t="s">
+      <c r="B211" t="s">
         <v>1</v>
       </c>
       <c r="C211">
@@ -13572,7 +13583,7 @@
       <c r="A212">
         <v>211</v>
       </c>
-      <c r="B212" s="6" t="s">
+      <c r="B212" t="s">
         <v>1</v>
       </c>
       <c r="C212">
@@ -13583,7 +13594,7 @@
       <c r="A213">
         <v>212</v>
       </c>
-      <c r="B213" s="6" t="s">
+      <c r="B213" t="s">
         <v>1</v>
       </c>
       <c r="C213">
@@ -13594,7 +13605,7 @@
       <c r="A214">
         <v>213</v>
       </c>
-      <c r="B214" s="6" t="s">
+      <c r="B214" t="s">
         <v>1</v>
       </c>
       <c r="C214">
@@ -13605,7 +13616,7 @@
       <c r="A215">
         <v>214</v>
       </c>
-      <c r="B215" s="6" t="s">
+      <c r="B215" t="s">
         <v>1</v>
       </c>
       <c r="C215">
@@ -13616,7 +13627,7 @@
       <c r="A216">
         <v>215</v>
       </c>
-      <c r="B216" s="6" t="s">
+      <c r="B216" t="s">
         <v>1</v>
       </c>
       <c r="C216">
@@ -13627,7 +13638,7 @@
       <c r="A217">
         <v>216</v>
       </c>
-      <c r="B217" s="6" t="s">
+      <c r="B217" t="s">
         <v>1</v>
       </c>
       <c r="C217">
@@ -13638,7 +13649,7 @@
       <c r="A218">
         <v>217</v>
       </c>
-      <c r="B218" s="6" t="s">
+      <c r="B218" t="s">
         <v>1</v>
       </c>
       <c r="C218">
@@ -13649,7 +13660,7 @@
       <c r="A219">
         <v>218</v>
       </c>
-      <c r="B219" s="6" t="s">
+      <c r="B219" t="s">
         <v>1</v>
       </c>
       <c r="C219">
@@ -13660,7 +13671,7 @@
       <c r="A220">
         <v>219</v>
       </c>
-      <c r="B220" s="6" t="s">
+      <c r="B220" t="s">
         <v>1</v>
       </c>
       <c r="C220">
@@ -13671,7 +13682,7 @@
       <c r="A221">
         <v>220</v>
       </c>
-      <c r="B221" s="6" t="s">
+      <c r="B221" t="s">
         <v>1</v>
       </c>
       <c r="C221">
@@ -13682,7 +13693,7 @@
       <c r="A222">
         <v>221</v>
       </c>
-      <c r="B222" s="6" t="s">
+      <c r="B222" t="s">
         <v>1</v>
       </c>
       <c r="C222">
@@ -13693,7 +13704,7 @@
       <c r="A223">
         <v>222</v>
       </c>
-      <c r="B223" s="6" t="s">
+      <c r="B223" t="s">
         <v>1</v>
       </c>
       <c r="C223">
@@ -13704,7 +13715,7 @@
       <c r="A224">
         <v>223</v>
       </c>
-      <c r="B224" s="6" t="s">
+      <c r="B224" t="s">
         <v>1</v>
       </c>
       <c r="C224">
@@ -13715,7 +13726,7 @@
       <c r="A225">
         <v>224</v>
       </c>
-      <c r="B225" s="6" t="s">
+      <c r="B225" t="s">
         <v>1</v>
       </c>
       <c r="C225">
@@ -13726,7 +13737,7 @@
       <c r="A226">
         <v>225</v>
       </c>
-      <c r="B226" s="6" t="s">
+      <c r="B226" t="s">
         <v>1</v>
       </c>
       <c r="C226">
@@ -13737,7 +13748,7 @@
       <c r="A227">
         <v>226</v>
       </c>
-      <c r="B227" s="6" t="s">
+      <c r="B227" t="s">
         <v>1</v>
       </c>
       <c r="C227">
@@ -13748,7 +13759,7 @@
       <c r="A228">
         <v>227</v>
       </c>
-      <c r="B228" s="6" t="s">
+      <c r="B228" t="s">
         <v>1</v>
       </c>
       <c r="C228">
@@ -13759,7 +13770,7 @@
       <c r="A229">
         <v>228</v>
       </c>
-      <c r="B229" s="6" t="s">
+      <c r="B229" t="s">
         <v>1</v>
       </c>
       <c r="C229">
@@ -13770,7 +13781,7 @@
       <c r="A230">
         <v>229</v>
       </c>
-      <c r="B230" s="6" t="s">
+      <c r="B230" t="s">
         <v>1</v>
       </c>
       <c r="C230">
@@ -13781,7 +13792,7 @@
       <c r="A231">
         <v>230</v>
       </c>
-      <c r="B231" s="6" t="s">
+      <c r="B231" t="s">
         <v>1</v>
       </c>
       <c r="C231">
@@ -13792,7 +13803,7 @@
       <c r="A232">
         <v>231</v>
       </c>
-      <c r="B232" s="6" t="s">
+      <c r="B232" t="s">
         <v>1</v>
       </c>
       <c r="C232">
@@ -13803,7 +13814,7 @@
       <c r="A233">
         <v>232</v>
       </c>
-      <c r="B233" s="6" t="s">
+      <c r="B233" t="s">
         <v>1</v>
       </c>
       <c r="C233">
@@ -13814,7 +13825,7 @@
       <c r="A234">
         <v>233</v>
       </c>
-      <c r="B234" s="6" t="s">
+      <c r="B234" t="s">
         <v>1</v>
       </c>
       <c r="C234">
@@ -13825,7 +13836,7 @@
       <c r="A235">
         <v>234</v>
       </c>
-      <c r="B235" s="6" t="s">
+      <c r="B235" t="s">
         <v>1</v>
       </c>
       <c r="C235">
@@ -13836,7 +13847,7 @@
       <c r="A236">
         <v>235</v>
       </c>
-      <c r="B236" s="6" t="s">
+      <c r="B236" t="s">
         <v>1</v>
       </c>
       <c r="C236">
@@ -13847,7 +13858,7 @@
       <c r="A237">
         <v>236</v>
       </c>
-      <c r="B237" s="6" t="s">
+      <c r="B237" t="s">
         <v>1</v>
       </c>
       <c r="C237">
@@ -13858,7 +13869,7 @@
       <c r="A238">
         <v>237</v>
       </c>
-      <c r="B238" s="6" t="s">
+      <c r="B238" t="s">
         <v>1</v>
       </c>
       <c r="C238">
@@ -13869,7 +13880,7 @@
       <c r="A239">
         <v>238</v>
       </c>
-      <c r="B239" s="6" t="s">
+      <c r="B239" t="s">
         <v>1</v>
       </c>
       <c r="C239">
@@ -13880,7 +13891,7 @@
       <c r="A240">
         <v>239</v>
       </c>
-      <c r="B240" s="6" t="s">
+      <c r="B240" t="s">
         <v>1</v>
       </c>
       <c r="C240">
@@ -13891,7 +13902,7 @@
       <c r="A241">
         <v>240</v>
       </c>
-      <c r="B241" s="6" t="s">
+      <c r="B241" t="s">
         <v>1</v>
       </c>
       <c r="C241">
@@ -13902,7 +13913,7 @@
       <c r="A242">
         <v>241</v>
       </c>
-      <c r="B242" s="6" t="s">
+      <c r="B242" t="s">
         <v>1</v>
       </c>
       <c r="C242">
@@ -13913,7 +13924,7 @@
       <c r="A243">
         <v>242</v>
       </c>
-      <c r="B243" s="6" t="s">
+      <c r="B243" t="s">
         <v>1</v>
       </c>
       <c r="C243">
@@ -13924,7 +13935,7 @@
       <c r="A244">
         <v>243</v>
       </c>
-      <c r="B244" s="6" t="s">
+      <c r="B244" t="s">
         <v>1</v>
       </c>
       <c r="C244">
@@ -13935,7 +13946,7 @@
       <c r="A245">
         <v>244</v>
       </c>
-      <c r="B245" s="6" t="s">
+      <c r="B245" t="s">
         <v>1</v>
       </c>
       <c r="C245">
@@ -13946,7 +13957,7 @@
       <c r="A246">
         <v>245</v>
       </c>
-      <c r="B246" s="6" t="s">
+      <c r="B246" t="s">
         <v>1</v>
       </c>
       <c r="C246">
@@ -13957,7 +13968,7 @@
       <c r="A247">
         <v>246</v>
       </c>
-      <c r="B247" s="6" t="s">
+      <c r="B247" t="s">
         <v>1</v>
       </c>
       <c r="C247">
@@ -13968,7 +13979,7 @@
       <c r="A248">
         <v>247</v>
       </c>
-      <c r="B248" s="6" t="s">
+      <c r="B248" t="s">
         <v>1</v>
       </c>
       <c r="C248">
@@ -13979,7 +13990,7 @@
       <c r="A249">
         <v>248</v>
       </c>
-      <c r="B249" s="6" t="s">
+      <c r="B249" t="s">
         <v>1</v>
       </c>
       <c r="C249">
@@ -13990,7 +14001,7 @@
       <c r="A250">
         <v>249</v>
       </c>
-      <c r="B250" s="6" t="s">
+      <c r="B250" t="s">
         <v>1</v>
       </c>
       <c r="C250">
@@ -14001,7 +14012,7 @@
       <c r="A251">
         <v>250</v>
       </c>
-      <c r="B251" s="6" t="s">
+      <c r="B251" t="s">
         <v>1</v>
       </c>
       <c r="C251">
@@ -14012,7 +14023,7 @@
       <c r="A252">
         <v>251</v>
       </c>
-      <c r="B252" s="6" t="s">
+      <c r="B252" t="s">
         <v>1</v>
       </c>
       <c r="C252">
@@ -14023,7 +14034,7 @@
       <c r="A253">
         <v>252</v>
       </c>
-      <c r="B253" s="6" t="s">
+      <c r="B253" t="s">
         <v>1</v>
       </c>
       <c r="C253">
@@ -14034,7 +14045,7 @@
       <c r="A254">
         <v>253</v>
       </c>
-      <c r="B254" s="6" t="s">
+      <c r="B254" t="s">
         <v>1</v>
       </c>
       <c r="C254">
@@ -14045,7 +14056,7 @@
       <c r="A255">
         <v>254</v>
       </c>
-      <c r="B255" s="6" t="s">
+      <c r="B255" t="s">
         <v>1</v>
       </c>
       <c r="C255">
@@ -14056,7 +14067,7 @@
       <c r="A256">
         <v>255</v>
       </c>
-      <c r="B256" s="6" t="s">
+      <c r="B256" t="s">
         <v>1</v>
       </c>
       <c r="C256">
@@ -14067,7 +14078,7 @@
       <c r="A257">
         <v>256</v>
       </c>
-      <c r="B257" s="6" t="s">
+      <c r="B257" t="s">
         <v>1</v>
       </c>
       <c r="C257">
@@ -14078,7 +14089,7 @@
       <c r="A258">
         <v>257</v>
       </c>
-      <c r="B258" s="6" t="s">
+      <c r="B258" t="s">
         <v>1</v>
       </c>
       <c r="C258">
@@ -14089,7 +14100,7 @@
       <c r="A259">
         <v>258</v>
       </c>
-      <c r="B259" s="6" t="s">
+      <c r="B259" t="s">
         <v>1</v>
       </c>
       <c r="C259">
@@ -14100,7 +14111,7 @@
       <c r="A260">
         <v>259</v>
       </c>
-      <c r="B260" s="6" t="s">
+      <c r="B260" t="s">
         <v>1</v>
       </c>
       <c r="C260">
@@ -14111,7 +14122,7 @@
       <c r="A261">
         <v>260</v>
       </c>
-      <c r="B261" s="6" t="s">
+      <c r="B261" t="s">
         <v>1</v>
       </c>
       <c r="C261">
@@ -14122,7 +14133,7 @@
       <c r="A262">
         <v>261</v>
       </c>
-      <c r="B262" s="6" t="s">
+      <c r="B262" t="s">
         <v>1</v>
       </c>
       <c r="C262">
@@ -14133,7 +14144,7 @@
       <c r="A263">
         <v>262</v>
       </c>
-      <c r="B263" s="6" t="s">
+      <c r="B263" t="s">
         <v>1</v>
       </c>
       <c r="C263">
@@ -14144,7 +14155,7 @@
       <c r="A264">
         <v>263</v>
       </c>
-      <c r="B264" s="6" t="s">
+      <c r="B264" t="s">
         <v>1</v>
       </c>
       <c r="C264">
@@ -14155,7 +14166,7 @@
       <c r="A265">
         <v>264</v>
       </c>
-      <c r="B265" s="6" t="s">
+      <c r="B265" t="s">
         <v>1</v>
       </c>
       <c r="C265">
@@ -14166,7 +14177,7 @@
       <c r="A266">
         <v>265</v>
       </c>
-      <c r="B266" s="6" t="s">
+      <c r="B266" t="s">
         <v>1</v>
       </c>
       <c r="C266">
@@ -14177,7 +14188,7 @@
       <c r="A267">
         <v>266</v>
       </c>
-      <c r="B267" s="6" t="s">
+      <c r="B267" t="s">
         <v>1</v>
       </c>
       <c r="C267">
@@ -14188,7 +14199,7 @@
       <c r="A268">
         <v>267</v>
       </c>
-      <c r="B268" s="6" t="s">
+      <c r="B268" t="s">
         <v>1</v>
       </c>
       <c r="C268">
@@ -14199,7 +14210,7 @@
       <c r="A269">
         <v>268</v>
       </c>
-      <c r="B269" s="6" t="s">
+      <c r="B269" t="s">
         <v>1</v>
       </c>
       <c r="C269">
@@ -14210,7 +14221,7 @@
       <c r="A270">
         <v>269</v>
       </c>
-      <c r="B270" s="6" t="s">
+      <c r="B270" t="s">
         <v>1</v>
       </c>
       <c r="C270">
@@ -14221,7 +14232,7 @@
       <c r="A271">
         <v>270</v>
       </c>
-      <c r="B271" s="6" t="s">
+      <c r="B271" t="s">
         <v>1</v>
       </c>
       <c r="C271">
@@ -14232,7 +14243,7 @@
       <c r="A272">
         <v>271</v>
       </c>
-      <c r="B272" s="6" t="s">
+      <c r="B272" t="s">
         <v>1</v>
       </c>
       <c r="C272">
@@ -14243,7 +14254,7 @@
       <c r="A273">
         <v>272</v>
       </c>
-      <c r="B273" s="6" t="s">
+      <c r="B273" t="s">
         <v>1</v>
       </c>
       <c r="C273">
@@ -14254,7 +14265,7 @@
       <c r="A274">
         <v>273</v>
       </c>
-      <c r="B274" s="6" t="s">
+      <c r="B274" t="s">
         <v>1</v>
       </c>
       <c r="C274">
@@ -14265,7 +14276,7 @@
       <c r="A275">
         <v>274</v>
       </c>
-      <c r="B275" s="6" t="s">
+      <c r="B275" t="s">
         <v>1</v>
       </c>
       <c r="C275">
@@ -14276,7 +14287,7 @@
       <c r="A276">
         <v>275</v>
       </c>
-      <c r="B276" s="6" t="s">
+      <c r="B276" t="s">
         <v>1</v>
       </c>
       <c r="C276">
@@ -14287,7 +14298,7 @@
       <c r="A277">
         <v>276</v>
       </c>
-      <c r="B277" s="6" t="s">
+      <c r="B277" t="s">
         <v>1</v>
       </c>
       <c r="C277">
@@ -14298,7 +14309,7 @@
       <c r="A278">
         <v>277</v>
       </c>
-      <c r="B278" s="6" t="s">
+      <c r="B278" t="s">
         <v>1</v>
       </c>
       <c r="C278">
@@ -14309,7 +14320,7 @@
       <c r="A279">
         <v>278</v>
       </c>
-      <c r="B279" s="6" t="s">
+      <c r="B279" t="s">
         <v>1</v>
       </c>
       <c r="C279">
@@ -14320,7 +14331,7 @@
       <c r="A280">
         <v>279</v>
       </c>
-      <c r="B280" s="6" t="s">
+      <c r="B280" t="s">
         <v>1</v>
       </c>
       <c r="C280">
@@ -14331,7 +14342,7 @@
       <c r="A281">
         <v>280</v>
       </c>
-      <c r="B281" s="6" t="s">
+      <c r="B281" t="s">
         <v>1</v>
       </c>
       <c r="C281">
@@ -14342,7 +14353,7 @@
       <c r="A282">
         <v>281</v>
       </c>
-      <c r="B282" s="6" t="s">
+      <c r="B282" t="s">
         <v>1</v>
       </c>
       <c r="C282">
@@ -14353,7 +14364,7 @@
       <c r="A283">
         <v>282</v>
       </c>
-      <c r="B283" s="6" t="s">
+      <c r="B283" t="s">
         <v>1</v>
       </c>
       <c r="C283">
@@ -14364,7 +14375,7 @@
       <c r="A284">
         <v>283</v>
       </c>
-      <c r="B284" s="6" t="s">
+      <c r="B284" t="s">
         <v>1</v>
       </c>
       <c r="C284">
@@ -14375,7 +14386,7 @@
       <c r="A285">
         <v>284</v>
       </c>
-      <c r="B285" s="6" t="s">
+      <c r="B285" t="s">
         <v>1</v>
       </c>
       <c r="C285">
@@ -14386,7 +14397,7 @@
       <c r="A286">
         <v>285</v>
       </c>
-      <c r="B286" s="6" t="s">
+      <c r="B286" t="s">
         <v>1</v>
       </c>
       <c r="C286">
@@ -14397,7 +14408,7 @@
       <c r="A287">
         <v>286</v>
       </c>
-      <c r="B287" s="6" t="s">
+      <c r="B287" t="s">
         <v>1</v>
       </c>
       <c r="C287">
@@ -14408,7 +14419,7 @@
       <c r="A288">
         <v>287</v>
       </c>
-      <c r="B288" s="6" t="s">
+      <c r="B288" t="s">
         <v>1</v>
       </c>
       <c r="C288">
@@ -14419,7 +14430,7 @@
       <c r="A289">
         <v>288</v>
       </c>
-      <c r="B289" s="6" t="s">
+      <c r="B289" t="s">
         <v>1</v>
       </c>
       <c r="C289">
@@ -14430,7 +14441,7 @@
       <c r="A290">
         <v>289</v>
       </c>
-      <c r="B290" s="6" t="s">
+      <c r="B290" t="s">
         <v>1</v>
       </c>
       <c r="C290">
@@ -14441,7 +14452,7 @@
       <c r="A291">
         <v>290</v>
       </c>
-      <c r="B291" s="6" t="s">
+      <c r="B291" t="s">
         <v>1</v>
       </c>
       <c r="C291">
@@ -14452,7 +14463,7 @@
       <c r="A292">
         <v>291</v>
       </c>
-      <c r="B292" s="6" t="s">
+      <c r="B292" t="s">
         <v>1</v>
       </c>
       <c r="C292">
@@ -14463,7 +14474,7 @@
       <c r="A293">
         <v>292</v>
       </c>
-      <c r="B293" s="6" t="s">
+      <c r="B293" t="s">
         <v>1</v>
       </c>
       <c r="C293">
@@ -14474,7 +14485,7 @@
       <c r="A294">
         <v>293</v>
       </c>
-      <c r="B294" s="6" t="s">
+      <c r="B294" t="s">
         <v>1</v>
       </c>
       <c r="C294">
@@ -14485,7 +14496,7 @@
       <c r="A295">
         <v>294</v>
       </c>
-      <c r="B295" s="6" t="s">
+      <c r="B295" t="s">
         <v>1</v>
       </c>
       <c r="C295">
@@ -14496,7 +14507,7 @@
       <c r="A296">
         <v>295</v>
       </c>
-      <c r="B296" s="6" t="s">
+      <c r="B296" t="s">
         <v>1</v>
       </c>
       <c r="C296">
@@ -14507,7 +14518,7 @@
       <c r="A297">
         <v>296</v>
       </c>
-      <c r="B297" s="6" t="s">
+      <c r="B297" t="s">
         <v>1</v>
       </c>
       <c r="C297">
@@ -14518,7 +14529,7 @@
       <c r="A298">
         <v>297</v>
       </c>
-      <c r="B298" s="6" t="s">
+      <c r="B298" t="s">
         <v>1</v>
       </c>
       <c r="C298">
@@ -14529,7 +14540,7 @@
       <c r="A299">
         <v>298</v>
       </c>
-      <c r="B299" s="6" t="s">
+      <c r="B299" t="s">
         <v>1</v>
       </c>
       <c r="C299">
@@ -14540,7 +14551,7 @@
       <c r="A300">
         <v>299</v>
       </c>
-      <c r="B300" s="6" t="s">
+      <c r="B300" t="s">
         <v>1</v>
       </c>
       <c r="C300">
@@ -14551,7 +14562,7 @@
       <c r="A301">
         <v>300</v>
       </c>
-      <c r="B301" s="6" t="s">
+      <c r="B301" t="s">
         <v>1</v>
       </c>
       <c r="C301">
@@ -14568,15 +14579,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F209DE0-81BA-4590-B7A4-E5A5CD8A8B4C}">
-  <dimension ref="A1:D301"/>
+  <dimension ref="A1:H301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="7" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14589,8 +14603,17 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -14603,8 +14626,20 @@
       <c r="D2" s="4">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <f>AVERAGE(B2:B301)</f>
+        <v>59.583333333333336</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(C2:C301)</f>
+        <v>59.623333333333335</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(D2:D301)</f>
+        <v>59.576666666666668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -14618,7 +14653,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -14632,7 +14667,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -14646,7 +14681,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -14660,7 +14695,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -14674,7 +14709,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -14688,7 +14723,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -14702,7 +14737,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -14716,7 +14751,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -14730,7 +14765,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -14744,7 +14779,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -14758,7 +14793,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -14772,7 +14807,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -14786,7 +14821,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
